--- a/Datasets/dataset.xlsx
+++ b/Datasets/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fang/Dropbox (RPI)/Postdoc_projects/Methane project/Analysis_Lyon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fang/Code/Network_analysis_abiotic_methane/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C24139-8A99-F440-942B-5B041DA2B2CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074C801-CE71-C244-8DC7-0EB48484282E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="460" windowWidth="16380" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14720" yWindow="460" windowWidth="33780" windowHeight="24240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1653,7 +1659,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1705,7 +1711,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1909,9 +1915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP2" sqref="AP2:AQ733"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G679" sqref="G679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7516,7 +7522,7 @@
         <v>14</v>
       </c>
       <c r="X48">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -7633,7 +7639,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="X49">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -7750,7 +7756,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="X50">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y50">
         <v>1</v>
@@ -7867,7 +7873,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="X51">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -7984,7 +7990,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="X52">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y52">
         <v>1</v>
@@ -8101,7 +8107,7 @@
         <v>8.6</v>
       </c>
       <c r="X53">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y53">
         <v>1</v>
@@ -8218,7 +8224,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="X54">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -8335,7 +8341,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="X55">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -8452,7 +8458,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="X56">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y56">
         <v>1</v>
@@ -8569,7 +8575,7 @@
         <v>14</v>
       </c>
       <c r="X57">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y57">
         <v>1</v>
@@ -8686,7 +8692,7 @@
         <v>4.8</v>
       </c>
       <c r="X58">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y58">
         <v>1</v>
@@ -8803,7 +8809,7 @@
         <v>4.8</v>
       </c>
       <c r="X59">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y59">
         <v>1</v>
@@ -81239,7 +81245,7 @@
         <v>35</v>
       </c>
       <c r="G678" s="100">
-        <v>12227.92</v>
+        <v>1227.92</v>
       </c>
       <c r="H678" s="125">
         <v>1</v>

--- a/Datasets/dataset.xlsx
+++ b/Datasets/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fang/Code/Network_analysis_abiotic_methane/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074C801-CE71-C244-8DC7-0EB48484282E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25F438F-5D18-9B43-830A-F9ABB0FFEF84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14720" yWindow="460" windowWidth="33780" windowHeight="24240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>Other_organics_mM</t>
   </si>
   <si>
-    <t>C_conversion_ratio</t>
-  </si>
-  <si>
     <t>Ni_bearing</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Temperature_C</t>
+  </si>
+  <si>
+    <t>C_ratio</t>
   </si>
 </sst>
 </file>
@@ -1513,6 +1513,48 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1527,15 +1569,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1561,40 +1594,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1915,9 +1915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM733"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G679" sqref="G679"/>
+      <selection pane="bottomLeft" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1954,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="171" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="172" t="s">
         <v>12</v>
@@ -1987,16 +1987,16 @@
         <v>6</v>
       </c>
       <c r="P1" s="174" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="174" t="s">
+      <c r="R1" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="174" t="s">
+      <c r="S1" s="179" t="s">
         <v>69</v>
-      </c>
-      <c r="S1" s="179" t="s">
-        <v>70</v>
       </c>
       <c r="T1" s="177" t="s">
         <v>15</v>
@@ -2026,10 +2026,10 @@
         <v>8</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>29</v>
@@ -2056,18 +2056,18 @@
         <v>21</v>
       </c>
       <c r="AM1" s="184" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="185">
+      <c r="B2" s="199">
         <v>1</v>
       </c>
       <c r="C2" s="158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="169">
         <v>1</v>
@@ -2182,9 +2182,9 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="186"/>
+      <c r="B3" s="200"/>
       <c r="C3" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="16">
         <v>2</v>
@@ -2299,9 +2299,9 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="186"/>
+      <c r="B4" s="200"/>
       <c r="C4" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="16">
         <v>3</v>
@@ -2416,9 +2416,9 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="186"/>
+      <c r="B5" s="200"/>
       <c r="C5" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="16">
         <v>4</v>
@@ -2533,9 +2533,9 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="186"/>
+      <c r="B6" s="200"/>
       <c r="C6" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="16">
         <v>5</v>
@@ -2650,9 +2650,9 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="186"/>
+      <c r="B7" s="200"/>
       <c r="C7" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="16">
         <v>6</v>
@@ -2767,9 +2767,9 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="186"/>
+      <c r="B8" s="200"/>
       <c r="C8" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="16">
         <v>7</v>
@@ -2884,9 +2884,9 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="186"/>
+      <c r="B9" s="200"/>
       <c r="C9" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="16">
         <v>8</v>
@@ -3001,9 +3001,9 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="186"/>
+      <c r="B10" s="200"/>
       <c r="C10" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="16">
         <v>9</v>
@@ -3118,9 +3118,9 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="186"/>
+      <c r="B11" s="200"/>
       <c r="C11" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="16">
         <v>10</v>
@@ -3235,9 +3235,9 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="186"/>
+      <c r="B12" s="200"/>
       <c r="C12" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="16">
         <v>11</v>
@@ -3352,9 +3352,9 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="186"/>
+      <c r="B13" s="200"/>
       <c r="C13" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="16">
         <v>12</v>
@@ -3469,9 +3469,9 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="186"/>
+      <c r="B14" s="200"/>
       <c r="C14" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="16">
         <v>13</v>
@@ -3586,9 +3586,9 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="186"/>
+      <c r="B15" s="200"/>
       <c r="C15" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="16">
         <v>14</v>
@@ -3703,9 +3703,9 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="186"/>
+      <c r="B16" s="200"/>
       <c r="C16" s="142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="16">
         <v>15</v>
@@ -3820,9 +3820,9 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="187"/>
+      <c r="B17" s="201"/>
       <c r="C17" s="143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="20">
         <v>16</v>
@@ -3937,11 +3937,11 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="188">
+      <c r="B18" s="202">
         <v>2</v>
       </c>
       <c r="C18" s="156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="24">
         <v>1</v>
@@ -4056,9 +4056,9 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="189"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="25">
         <v>2</v>
@@ -4173,9 +4173,9 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="189"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="25">
         <v>3</v>
@@ -4290,9 +4290,9 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="189"/>
+      <c r="B21" s="203"/>
       <c r="C21" s="157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="25">
         <v>4</v>
@@ -4407,9 +4407,9 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="190"/>
+      <c r="B22" s="212"/>
       <c r="C22" s="159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="27">
         <v>5</v>
@@ -4524,11 +4524,11 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="185">
+      <c r="B23" s="199">
         <v>3</v>
       </c>
       <c r="C23" s="141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="28">
         <v>1</v>
@@ -4643,9 +4643,9 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="186"/>
+      <c r="B24" s="200"/>
       <c r="C24" s="142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="25">
         <v>1</v>
@@ -4760,9 +4760,9 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="186"/>
+      <c r="B25" s="200"/>
       <c r="C25" s="142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="25">
         <v>1</v>
@@ -4877,9 +4877,9 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="186"/>
+      <c r="B26" s="200"/>
       <c r="C26" s="142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="25">
         <v>1</v>
@@ -4994,9 +4994,9 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="186"/>
+      <c r="B27" s="200"/>
       <c r="C27" s="142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -5111,9 +5111,9 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="186"/>
+      <c r="B28" s="200"/>
       <c r="C28" s="142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="25">
         <v>1</v>
@@ -5228,9 +5228,9 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="187"/>
+      <c r="B29" s="201"/>
       <c r="C29" s="143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="29">
         <v>1</v>
@@ -5345,11 +5345,11 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="185">
+      <c r="B30" s="199">
         <v>4</v>
       </c>
       <c r="C30" s="141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="28">
         <v>1</v>
@@ -5464,9 +5464,9 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="186"/>
+      <c r="B31" s="200"/>
       <c r="C31" s="142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="25">
         <v>1</v>
@@ -5581,9 +5581,9 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="186"/>
+      <c r="B32" s="200"/>
       <c r="C32" s="142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="25">
         <v>1</v>
@@ -5698,9 +5698,9 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="186"/>
+      <c r="B33" s="200"/>
       <c r="C33" s="142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="25">
         <v>1</v>
@@ -5815,9 +5815,9 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="186"/>
+      <c r="B34" s="200"/>
       <c r="C34" s="142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="25">
         <v>1</v>
@@ -5932,9 +5932,9 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="186"/>
+      <c r="B35" s="200"/>
       <c r="C35" s="142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="25">
         <v>1</v>
@@ -6049,9 +6049,9 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="186"/>
+      <c r="B36" s="200"/>
       <c r="C36" s="142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="25">
         <v>1</v>
@@ -6166,9 +6166,9 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="186"/>
+      <c r="B37" s="200"/>
       <c r="C37" s="142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="25">
         <v>1</v>
@@ -6283,9 +6283,9 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="186"/>
+      <c r="B38" s="200"/>
       <c r="C38" s="142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="25">
         <v>1</v>
@@ -6400,9 +6400,9 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="186"/>
+      <c r="B39" s="200"/>
       <c r="C39" s="142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="25">
         <v>1</v>
@@ -6517,9 +6517,9 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="186"/>
+      <c r="B40" s="200"/>
       <c r="C40" s="142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="25">
         <v>1</v>
@@ -6634,9 +6634,9 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="186"/>
+      <c r="B41" s="200"/>
       <c r="C41" s="142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="25">
         <v>2</v>
@@ -6751,9 +6751,9 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="187"/>
+      <c r="B42" s="201"/>
       <c r="C42" s="143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="29">
         <v>2</v>
@@ -6868,11 +6868,11 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="185">
+      <c r="B43" s="199">
         <v>5</v>
       </c>
       <c r="C43" s="141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="28">
         <v>1</v>
@@ -6987,9 +6987,9 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="186"/>
+      <c r="B44" s="200"/>
       <c r="C44" s="142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" s="25">
         <v>1</v>
@@ -7104,9 +7104,9 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="186"/>
+      <c r="B45" s="200"/>
       <c r="C45" s="142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" s="25">
         <v>1</v>
@@ -7221,9 +7221,9 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="186"/>
+      <c r="B46" s="200"/>
       <c r="C46" s="142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="25">
         <v>1</v>
@@ -7338,9 +7338,9 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="187"/>
+      <c r="B47" s="201"/>
       <c r="C47" s="143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" s="27">
         <v>1</v>
@@ -7455,11 +7455,11 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="185">
+      <c r="B48" s="199">
         <v>6</v>
       </c>
       <c r="C48" s="141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48" s="28">
         <v>1</v>
@@ -7574,9 +7574,9 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="186"/>
+      <c r="B49" s="200"/>
       <c r="C49" s="142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="25">
         <v>1</v>
@@ -7691,9 +7691,9 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="186"/>
+      <c r="B50" s="200"/>
       <c r="C50" s="142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" s="25">
         <v>1</v>
@@ -7808,9 +7808,9 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="186"/>
+      <c r="B51" s="200"/>
       <c r="C51" s="142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" s="25">
         <v>1</v>
@@ -7925,9 +7925,9 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="186"/>
+      <c r="B52" s="200"/>
       <c r="C52" s="142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" s="25">
         <v>1</v>
@@ -8042,9 +8042,9 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="186"/>
+      <c r="B53" s="200"/>
       <c r="C53" s="142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53" s="25">
         <v>1</v>
@@ -8159,9 +8159,9 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="186"/>
+      <c r="B54" s="200"/>
       <c r="C54" s="142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D54" s="25">
         <v>1</v>
@@ -8276,9 +8276,9 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="186"/>
+      <c r="B55" s="200"/>
       <c r="C55" s="142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55" s="25">
         <v>1</v>
@@ -8393,9 +8393,9 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="186"/>
+      <c r="B56" s="200"/>
       <c r="C56" s="142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" s="25">
         <v>2</v>
@@ -8510,9 +8510,9 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="186"/>
+      <c r="B57" s="200"/>
       <c r="C57" s="142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57" s="25">
         <v>2</v>
@@ -8627,9 +8627,9 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="186"/>
+      <c r="B58" s="200"/>
       <c r="C58" s="142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" s="25">
         <v>2</v>
@@ -8744,9 +8744,9 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="187"/>
+      <c r="B59" s="201"/>
       <c r="C59" s="143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D59" s="27">
         <v>2</v>
@@ -8861,11 +8861,11 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="185">
+      <c r="B60" s="199">
         <v>7</v>
       </c>
       <c r="C60" s="141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D60" s="28">
         <v>1</v>
@@ -8981,9 +8981,9 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="186"/>
+      <c r="B61" s="200"/>
       <c r="C61" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D61" s="25">
         <v>1</v>
@@ -9099,9 +9099,9 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="186"/>
+      <c r="B62" s="200"/>
       <c r="C62" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D62" s="25">
         <v>1</v>
@@ -9217,9 +9217,9 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="186"/>
+      <c r="B63" s="200"/>
       <c r="C63" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D63" s="25">
         <v>1</v>
@@ -9335,9 +9335,9 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="186"/>
+      <c r="B64" s="200"/>
       <c r="C64" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D64" s="25">
         <v>1</v>
@@ -9453,9 +9453,9 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="186"/>
+      <c r="B65" s="200"/>
       <c r="C65" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65" s="25">
         <v>2</v>
@@ -9571,9 +9571,9 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="186"/>
+      <c r="B66" s="200"/>
       <c r="C66" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D66" s="25">
         <v>2</v>
@@ -9689,9 +9689,9 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="186"/>
+      <c r="B67" s="200"/>
       <c r="C67" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D67" s="25">
         <v>2</v>
@@ -9807,9 +9807,9 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="186"/>
+      <c r="B68" s="200"/>
       <c r="C68" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D68" s="25">
         <v>2</v>
@@ -9925,9 +9925,9 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="186"/>
+      <c r="B69" s="200"/>
       <c r="C69" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D69" s="25">
         <v>2</v>
@@ -10043,9 +10043,9 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="186"/>
+      <c r="B70" s="200"/>
       <c r="C70" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70" s="25">
         <v>3</v>
@@ -10161,9 +10161,9 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="186"/>
+      <c r="B71" s="200"/>
       <c r="C71" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D71" s="25">
         <v>3</v>
@@ -10279,9 +10279,9 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="186"/>
+      <c r="B72" s="200"/>
       <c r="C72" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D72" s="25">
         <v>3</v>
@@ -10397,9 +10397,9 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="186"/>
+      <c r="B73" s="200"/>
       <c r="C73" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D73" s="25">
         <v>3</v>
@@ -10515,9 +10515,9 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="186"/>
+      <c r="B74" s="200"/>
       <c r="C74" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D74" s="25">
         <v>3</v>
@@ -10633,9 +10633,9 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="186"/>
+      <c r="B75" s="200"/>
       <c r="C75" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D75" s="25">
         <v>4</v>
@@ -10751,9 +10751,9 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="186"/>
+      <c r="B76" s="200"/>
       <c r="C76" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D76" s="25">
         <v>4</v>
@@ -10869,9 +10869,9 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="186"/>
+      <c r="B77" s="200"/>
       <c r="C77" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D77" s="25">
         <v>4</v>
@@ -10987,9 +10987,9 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="186"/>
+      <c r="B78" s="200"/>
       <c r="C78" s="142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D78" s="25">
         <v>4</v>
@@ -11105,9 +11105,9 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="187"/>
+      <c r="B79" s="201"/>
       <c r="C79" s="143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D79" s="29">
         <v>4</v>
@@ -11223,11 +11223,11 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="186">
+      <c r="B80" s="200">
         <v>8</v>
       </c>
       <c r="C80" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D80" s="31">
         <v>1</v>
@@ -11342,9 +11342,9 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="186"/>
+      <c r="B81" s="200"/>
       <c r="C81" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D81" s="25">
         <v>1</v>
@@ -11459,9 +11459,9 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="186"/>
+      <c r="B82" s="200"/>
       <c r="C82" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D82" s="25">
         <v>1</v>
@@ -11576,9 +11576,9 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="186"/>
+      <c r="B83" s="200"/>
       <c r="C83" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D83" s="25">
         <v>1</v>
@@ -11693,9 +11693,9 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="186"/>
+      <c r="B84" s="200"/>
       <c r="C84" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84" s="25">
         <v>1</v>
@@ -11810,9 +11810,9 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="186"/>
+      <c r="B85" s="200"/>
       <c r="C85" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D85" s="25">
         <v>1</v>
@@ -11927,9 +11927,9 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="186"/>
+      <c r="B86" s="200"/>
       <c r="C86" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D86" s="25">
         <v>1</v>
@@ -12044,9 +12044,9 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="186"/>
+      <c r="B87" s="200"/>
       <c r="C87" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D87" s="25">
         <v>1</v>
@@ -12161,9 +12161,9 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="186"/>
+      <c r="B88" s="200"/>
       <c r="C88" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D88" s="25">
         <v>1</v>
@@ -12278,9 +12278,9 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="186"/>
+      <c r="B89" s="200"/>
       <c r="C89" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D89" s="25">
         <v>2</v>
@@ -12395,9 +12395,9 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="186"/>
+      <c r="B90" s="200"/>
       <c r="C90" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D90" s="25">
         <v>2</v>
@@ -12512,9 +12512,9 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="186"/>
+      <c r="B91" s="200"/>
       <c r="C91" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D91" s="25">
         <v>2</v>
@@ -12629,9 +12629,9 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="186"/>
+      <c r="B92" s="200"/>
       <c r="C92" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D92" s="25">
         <v>2</v>
@@ -12746,9 +12746,9 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="186"/>
+      <c r="B93" s="200"/>
       <c r="C93" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D93" s="25">
         <v>2</v>
@@ -12863,9 +12863,9 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="186"/>
+      <c r="B94" s="200"/>
       <c r="C94" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D94" s="25">
         <v>2</v>
@@ -12980,9 +12980,9 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="186"/>
+      <c r="B95" s="200"/>
       <c r="C95" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D95" s="25">
         <v>2</v>
@@ -13097,9 +13097,9 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="186"/>
+      <c r="B96" s="200"/>
       <c r="C96" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D96" s="25">
         <v>2</v>
@@ -13214,9 +13214,9 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="186"/>
+      <c r="B97" s="200"/>
       <c r="C97" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D97" s="25">
         <v>2</v>
@@ -13331,9 +13331,9 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="186"/>
+      <c r="B98" s="200"/>
       <c r="C98" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D98" s="25">
         <v>3</v>
@@ -13448,9 +13448,9 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="186"/>
+      <c r="B99" s="200"/>
       <c r="C99" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D99" s="25">
         <v>3</v>
@@ -13565,9 +13565,9 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="186"/>
+      <c r="B100" s="200"/>
       <c r="C100" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D100" s="25">
         <v>3</v>
@@ -13682,9 +13682,9 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="186"/>
+      <c r="B101" s="200"/>
       <c r="C101" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D101" s="25">
         <v>3</v>
@@ -13799,9 +13799,9 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="186"/>
+      <c r="B102" s="200"/>
       <c r="C102" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D102" s="25">
         <v>3</v>
@@ -13916,9 +13916,9 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="186"/>
+      <c r="B103" s="200"/>
       <c r="C103" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D103" s="25">
         <v>3</v>
@@ -14033,9 +14033,9 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="186"/>
+      <c r="B104" s="200"/>
       <c r="C104" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D104" s="25">
         <v>3</v>
@@ -14150,9 +14150,9 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="186"/>
+      <c r="B105" s="200"/>
       <c r="C105" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D105" s="25">
         <v>4</v>
@@ -14267,9 +14267,9 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="186"/>
+      <c r="B106" s="200"/>
       <c r="C106" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D106" s="25">
         <v>4</v>
@@ -14384,9 +14384,9 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="186"/>
+      <c r="B107" s="200"/>
       <c r="C107" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D107" s="25">
         <v>4</v>
@@ -14501,9 +14501,9 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="186"/>
+      <c r="B108" s="200"/>
       <c r="C108" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D108" s="25">
         <v>4</v>
@@ -14618,9 +14618,9 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="186"/>
+      <c r="B109" s="200"/>
       <c r="C109" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D109" s="25">
         <v>4</v>
@@ -14735,9 +14735,9 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="186"/>
+      <c r="B110" s="200"/>
       <c r="C110" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D110" s="25">
         <v>4</v>
@@ -14852,9 +14852,9 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="186"/>
+      <c r="B111" s="200"/>
       <c r="C111" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D111" s="25">
         <v>4</v>
@@ -14969,9 +14969,9 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="186"/>
+      <c r="B112" s="200"/>
       <c r="C112" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D112" s="25">
         <v>4</v>
@@ -15086,9 +15086,9 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="186"/>
+      <c r="B113" s="200"/>
       <c r="C113" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D113" s="25">
         <v>4</v>
@@ -15203,9 +15203,9 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="186"/>
+      <c r="B114" s="200"/>
       <c r="C114" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D114" s="25">
         <v>5</v>
@@ -15320,9 +15320,9 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="186"/>
+      <c r="B115" s="200"/>
       <c r="C115" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D115" s="25">
         <v>5</v>
@@ -15437,9 +15437,9 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="186"/>
+      <c r="B116" s="200"/>
       <c r="C116" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D116" s="25">
         <v>5</v>
@@ -15554,9 +15554,9 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="186"/>
+      <c r="B117" s="200"/>
       <c r="C117" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D117" s="25">
         <v>5</v>
@@ -15671,9 +15671,9 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="186"/>
+      <c r="B118" s="200"/>
       <c r="C118" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D118" s="25">
         <v>5</v>
@@ -15788,9 +15788,9 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="186"/>
+      <c r="B119" s="200"/>
       <c r="C119" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D119" s="25">
         <v>5</v>
@@ -15905,9 +15905,9 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="186"/>
+      <c r="B120" s="200"/>
       <c r="C120" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D120" s="25">
         <v>5</v>
@@ -16022,9 +16022,9 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="186"/>
+      <c r="B121" s="200"/>
       <c r="C121" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D121" s="25">
         <v>6</v>
@@ -16139,9 +16139,9 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="186"/>
+      <c r="B122" s="200"/>
       <c r="C122" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D122" s="25">
         <v>6</v>
@@ -16256,9 +16256,9 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="186"/>
+      <c r="B123" s="200"/>
       <c r="C123" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D123" s="25">
         <v>6</v>
@@ -16373,9 +16373,9 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="186"/>
+      <c r="B124" s="200"/>
       <c r="C124" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D124" s="25">
         <v>6</v>
@@ -16490,9 +16490,9 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="186"/>
+      <c r="B125" s="200"/>
       <c r="C125" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D125" s="25">
         <v>6</v>
@@ -16607,9 +16607,9 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="186"/>
+      <c r="B126" s="200"/>
       <c r="C126" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D126" s="25">
         <v>6</v>
@@ -16724,9 +16724,9 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="186"/>
+      <c r="B127" s="200"/>
       <c r="C127" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D127" s="25">
         <v>6</v>
@@ -16841,9 +16841,9 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="186"/>
+      <c r="B128" s="200"/>
       <c r="C128" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D128" s="25">
         <v>7</v>
@@ -16958,9 +16958,9 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="186"/>
+      <c r="B129" s="200"/>
       <c r="C129" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D129" s="25">
         <v>7</v>
@@ -17075,9 +17075,9 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="186"/>
+      <c r="B130" s="200"/>
       <c r="C130" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D130" s="25">
         <v>7</v>
@@ -17192,9 +17192,9 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="186"/>
+      <c r="B131" s="200"/>
       <c r="C131" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D131" s="25">
         <v>7</v>
@@ -17309,9 +17309,9 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="186"/>
+      <c r="B132" s="200"/>
       <c r="C132" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D132" s="25">
         <v>7</v>
@@ -17426,9 +17426,9 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="186"/>
+      <c r="B133" s="200"/>
       <c r="C133" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D133" s="25">
         <v>7</v>
@@ -17543,9 +17543,9 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="186"/>
+      <c r="B134" s="200"/>
       <c r="C134" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D134" s="25">
         <v>7</v>
@@ -17660,9 +17660,9 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="186"/>
+      <c r="B135" s="200"/>
       <c r="C135" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D135" s="25">
         <v>7</v>
@@ -17777,9 +17777,9 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="186"/>
+      <c r="B136" s="200"/>
       <c r="C136" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D136" s="25">
         <v>7</v>
@@ -17894,9 +17894,9 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="186"/>
+      <c r="B137" s="200"/>
       <c r="C137" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D137" s="25">
         <v>8</v>
@@ -18011,9 +18011,9 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="186"/>
+      <c r="B138" s="200"/>
       <c r="C138" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D138" s="25">
         <v>8</v>
@@ -18128,9 +18128,9 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="186"/>
+      <c r="B139" s="200"/>
       <c r="C139" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D139" s="25">
         <v>8</v>
@@ -18245,9 +18245,9 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="186"/>
+      <c r="B140" s="200"/>
       <c r="C140" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D140" s="25">
         <v>8</v>
@@ -18362,9 +18362,9 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="186"/>
+      <c r="B141" s="200"/>
       <c r="C141" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D141" s="25">
         <v>8</v>
@@ -18479,9 +18479,9 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="186"/>
+      <c r="B142" s="200"/>
       <c r="C142" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D142" s="25">
         <v>8</v>
@@ -18596,9 +18596,9 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="186"/>
+      <c r="B143" s="200"/>
       <c r="C143" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D143" s="25">
         <v>8</v>
@@ -18713,9 +18713,9 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="186"/>
+      <c r="B144" s="200"/>
       <c r="C144" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D144" s="25">
         <v>9</v>
@@ -18830,9 +18830,9 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="186"/>
+      <c r="B145" s="200"/>
       <c r="C145" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D145" s="25">
         <v>9</v>
@@ -18947,9 +18947,9 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="186"/>
+      <c r="B146" s="200"/>
       <c r="C146" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D146" s="25">
         <v>9</v>
@@ -19064,9 +19064,9 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="186"/>
+      <c r="B147" s="200"/>
       <c r="C147" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D147" s="25">
         <v>9</v>
@@ -19181,9 +19181,9 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="186"/>
+      <c r="B148" s="200"/>
       <c r="C148" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D148" s="25">
         <v>9</v>
@@ -19298,9 +19298,9 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="186"/>
+      <c r="B149" s="200"/>
       <c r="C149" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D149" s="25">
         <v>9</v>
@@ -19415,9 +19415,9 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="186"/>
+      <c r="B150" s="200"/>
       <c r="C150" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D150" s="25">
         <v>9</v>
@@ -19532,9 +19532,9 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="186"/>
+      <c r="B151" s="200"/>
       <c r="C151" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D151" s="25">
         <v>10</v>
@@ -19649,9 +19649,9 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="186"/>
+      <c r="B152" s="200"/>
       <c r="C152" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D152" s="25">
         <v>10</v>
@@ -19766,9 +19766,9 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="186"/>
+      <c r="B153" s="200"/>
       <c r="C153" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D153" s="25">
         <v>10</v>
@@ -19883,9 +19883,9 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="186"/>
+      <c r="B154" s="200"/>
       <c r="C154" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D154" s="25">
         <v>10</v>
@@ -20000,9 +20000,9 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="186"/>
+      <c r="B155" s="200"/>
       <c r="C155" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D155" s="25">
         <v>10</v>
@@ -20117,9 +20117,9 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="186"/>
+      <c r="B156" s="200"/>
       <c r="C156" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D156" s="25">
         <v>10</v>
@@ -20234,9 +20234,9 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="186"/>
+      <c r="B157" s="200"/>
       <c r="C157" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D157" s="25">
         <v>10</v>
@@ -20351,9 +20351,9 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="186"/>
+      <c r="B158" s="200"/>
       <c r="C158" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D158" s="25">
         <v>11</v>
@@ -20468,9 +20468,9 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="186"/>
+      <c r="B159" s="200"/>
       <c r="C159" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D159" s="25">
         <v>11</v>
@@ -20585,9 +20585,9 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="186"/>
+      <c r="B160" s="200"/>
       <c r="C160" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D160" s="25">
         <v>11</v>
@@ -20702,9 +20702,9 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="186"/>
+      <c r="B161" s="200"/>
       <c r="C161" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D161" s="25">
         <v>11</v>
@@ -20819,9 +20819,9 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="186"/>
+      <c r="B162" s="200"/>
       <c r="C162" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D162" s="25">
         <v>11</v>
@@ -20936,9 +20936,9 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="186"/>
+      <c r="B163" s="200"/>
       <c r="C163" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D163" s="25">
         <v>11</v>
@@ -21053,9 +21053,9 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="186"/>
+      <c r="B164" s="200"/>
       <c r="C164" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D164" s="25">
         <v>11</v>
@@ -21170,9 +21170,9 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="186"/>
+      <c r="B165" s="200"/>
       <c r="C165" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D165" s="25">
         <v>12</v>
@@ -21287,9 +21287,9 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="186"/>
+      <c r="B166" s="200"/>
       <c r="C166" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D166" s="25">
         <v>12</v>
@@ -21404,9 +21404,9 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="186"/>
+      <c r="B167" s="200"/>
       <c r="C167" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D167" s="25">
         <v>12</v>
@@ -21521,9 +21521,9 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="186"/>
+      <c r="B168" s="200"/>
       <c r="C168" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D168" s="25">
         <v>12</v>
@@ -21638,9 +21638,9 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="186"/>
+      <c r="B169" s="200"/>
       <c r="C169" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D169" s="25">
         <v>12</v>
@@ -21755,9 +21755,9 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="186"/>
+      <c r="B170" s="200"/>
       <c r="C170" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D170" s="25">
         <v>12</v>
@@ -21872,9 +21872,9 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="186"/>
+      <c r="B171" s="200"/>
       <c r="C171" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D171" s="27">
         <v>12</v>
@@ -21989,11 +21989,11 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="185">
+      <c r="B172" s="199">
         <v>9</v>
       </c>
       <c r="C172" s="141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D172" s="28">
         <v>1</v>
@@ -22108,9 +22108,9 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="186"/>
+      <c r="B173" s="200"/>
       <c r="C173" s="142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D173" s="25">
         <v>2</v>
@@ -22225,9 +22225,9 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="186"/>
+      <c r="B174" s="200"/>
       <c r="C174" s="142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D174" s="25">
         <v>3</v>
@@ -22342,9 +22342,9 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="186"/>
+      <c r="B175" s="200"/>
       <c r="C175" s="142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D175" s="25">
         <v>4</v>
@@ -22459,9 +22459,9 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="186"/>
+      <c r="B176" s="200"/>
       <c r="C176" s="142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D176" s="25">
         <v>5</v>
@@ -22576,9 +22576,9 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="187"/>
+      <c r="B177" s="201"/>
       <c r="C177" s="143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D177" s="29">
         <v>6</v>
@@ -22693,11 +22693,11 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="185">
+      <c r="B178" s="199">
         <v>10</v>
       </c>
       <c r="C178" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D178" s="28">
         <v>1</v>
@@ -22812,9 +22812,9 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="186"/>
+      <c r="B179" s="200"/>
       <c r="C179" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D179" s="25">
         <v>1</v>
@@ -22929,9 +22929,9 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="186"/>
+      <c r="B180" s="200"/>
       <c r="C180" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D180" s="25">
         <v>1</v>
@@ -23046,9 +23046,9 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="186"/>
+      <c r="B181" s="200"/>
       <c r="C181" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D181" s="25">
         <v>1</v>
@@ -23163,9 +23163,9 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="186"/>
+      <c r="B182" s="200"/>
       <c r="C182" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D182" s="25">
         <v>1</v>
@@ -23280,9 +23280,9 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="186"/>
+      <c r="B183" s="200"/>
       <c r="C183" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D183" s="25">
         <v>1</v>
@@ -23397,9 +23397,9 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="186"/>
+      <c r="B184" s="200"/>
       <c r="C184" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D184" s="25">
         <v>2</v>
@@ -23514,9 +23514,9 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="186"/>
+      <c r="B185" s="200"/>
       <c r="C185" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D185" s="25">
         <v>2</v>
@@ -23631,9 +23631,9 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="186"/>
+      <c r="B186" s="200"/>
       <c r="C186" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D186" s="25">
         <v>2</v>
@@ -23748,9 +23748,9 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="186"/>
+      <c r="B187" s="200"/>
       <c r="C187" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D187" s="25">
         <v>2</v>
@@ -23865,9 +23865,9 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="186"/>
+      <c r="B188" s="200"/>
       <c r="C188" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D188" s="25">
         <v>2</v>
@@ -23982,9 +23982,9 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="186"/>
+      <c r="B189" s="200"/>
       <c r="C189" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D189" s="25">
         <v>2</v>
@@ -24099,9 +24099,9 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="186"/>
+      <c r="B190" s="200"/>
       <c r="C190" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D190" s="25">
         <v>2</v>
@@ -24216,9 +24216,9 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="186"/>
+      <c r="B191" s="200"/>
       <c r="C191" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D191" s="25">
         <v>2</v>
@@ -24333,9 +24333,9 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="186"/>
+      <c r="B192" s="200"/>
       <c r="C192" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D192" s="25">
         <v>2</v>
@@ -24450,9 +24450,9 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="186"/>
+      <c r="B193" s="200"/>
       <c r="C193" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D193" s="25">
         <v>2</v>
@@ -24567,9 +24567,9 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="186"/>
+      <c r="B194" s="200"/>
       <c r="C194" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D194" s="25">
         <v>2</v>
@@ -24684,9 +24684,9 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="186"/>
+      <c r="B195" s="200"/>
       <c r="C195" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D195" s="25">
         <v>2</v>
@@ -24801,9 +24801,9 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="186"/>
+      <c r="B196" s="200"/>
       <c r="C196" s="141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D196" s="25">
         <v>2</v>
@@ -24918,9 +24918,9 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="186"/>
+      <c r="B197" s="200"/>
       <c r="C197" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D197" s="25">
         <v>3</v>
@@ -25035,9 +25035,9 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="186"/>
+      <c r="B198" s="200"/>
       <c r="C198" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D198" s="25">
         <v>3</v>
@@ -25152,9 +25152,9 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="186"/>
+      <c r="B199" s="200"/>
       <c r="C199" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D199" s="25">
         <v>3</v>
@@ -25269,9 +25269,9 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="186"/>
+      <c r="B200" s="200"/>
       <c r="C200" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D200" s="25">
         <v>3</v>
@@ -25386,9 +25386,9 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="186"/>
+      <c r="B201" s="200"/>
       <c r="C201" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D201" s="25">
         <v>4</v>
@@ -25503,9 +25503,9 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="186"/>
+      <c r="B202" s="200"/>
       <c r="C202" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D202" s="25">
         <v>4</v>
@@ -25620,9 +25620,9 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="186"/>
+      <c r="B203" s="200"/>
       <c r="C203" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D203" s="25">
         <v>4</v>
@@ -25737,9 +25737,9 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="186"/>
+      <c r="B204" s="200"/>
       <c r="C204" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D204" s="25">
         <v>4</v>
@@ -25854,9 +25854,9 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="186"/>
+      <c r="B205" s="200"/>
       <c r="C205" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D205" s="25">
         <v>5</v>
@@ -25971,9 +25971,9 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="186"/>
+      <c r="B206" s="200"/>
       <c r="C206" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D206" s="25">
         <v>5</v>
@@ -26088,9 +26088,9 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="186"/>
+      <c r="B207" s="200"/>
       <c r="C207" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D207" s="25">
         <v>5</v>
@@ -26205,9 +26205,9 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="186"/>
+      <c r="B208" s="200"/>
       <c r="C208" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D208" s="25">
         <v>5</v>
@@ -26322,9 +26322,9 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="186"/>
+      <c r="B209" s="200"/>
       <c r="C209" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D209" s="25">
         <v>6</v>
@@ -26439,9 +26439,9 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="186"/>
+      <c r="B210" s="200"/>
       <c r="C210" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D210" s="25">
         <v>6</v>
@@ -26556,9 +26556,9 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="186"/>
+      <c r="B211" s="200"/>
       <c r="C211" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D211" s="25">
         <v>6</v>
@@ -26673,9 +26673,9 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="186"/>
+      <c r="B212" s="200"/>
       <c r="C212" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D212" s="25">
         <v>6</v>
@@ -26790,9 +26790,9 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="186"/>
+      <c r="B213" s="200"/>
       <c r="C213" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D213" s="25">
         <v>6</v>
@@ -26907,9 +26907,9 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="186"/>
+      <c r="B214" s="200"/>
       <c r="C214" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D214" s="25">
         <v>7</v>
@@ -27024,9 +27024,9 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="186"/>
+      <c r="B215" s="200"/>
       <c r="C215" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D215" s="25">
         <v>7</v>
@@ -27141,9 +27141,9 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="186"/>
+      <c r="B216" s="200"/>
       <c r="C216" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D216" s="25">
         <v>7</v>
@@ -27258,9 +27258,9 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="186"/>
+      <c r="B217" s="200"/>
       <c r="C217" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D217" s="25">
         <v>8</v>
@@ -27375,9 +27375,9 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="186"/>
+      <c r="B218" s="200"/>
       <c r="C218" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D218" s="25">
         <v>8</v>
@@ -27492,9 +27492,9 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="186"/>
+      <c r="B219" s="200"/>
       <c r="C219" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D219" s="25">
         <v>8</v>
@@ -27609,9 +27609,9 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="186"/>
+      <c r="B220" s="200"/>
       <c r="C220" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D220" s="25">
         <v>8</v>
@@ -27726,9 +27726,9 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="186"/>
+      <c r="B221" s="200"/>
       <c r="C221" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D221" s="25">
         <v>8</v>
@@ -27843,9 +27843,9 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="186"/>
+      <c r="B222" s="200"/>
       <c r="C222" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D222" s="25">
         <v>9</v>
@@ -27960,9 +27960,9 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="186"/>
+      <c r="B223" s="200"/>
       <c r="C223" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D223" s="25">
         <v>9</v>
@@ -28077,9 +28077,9 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="186"/>
+      <c r="B224" s="200"/>
       <c r="C224" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D224" s="25">
         <v>9</v>
@@ -28194,9 +28194,9 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="186"/>
+      <c r="B225" s="200"/>
       <c r="C225" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D225" s="25">
         <v>9</v>
@@ -28311,9 +28311,9 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="186"/>
+      <c r="B226" s="200"/>
       <c r="C226" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D226" s="25">
         <v>9</v>
@@ -28428,9 +28428,9 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="186"/>
+      <c r="B227" s="200"/>
       <c r="C227" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D227" s="25">
         <v>10</v>
@@ -28545,9 +28545,9 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="186"/>
+      <c r="B228" s="200"/>
       <c r="C228" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D228" s="25">
         <v>10</v>
@@ -28662,9 +28662,9 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="186"/>
+      <c r="B229" s="200"/>
       <c r="C229" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D229" s="25">
         <v>10</v>
@@ -28779,9 +28779,9 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="186"/>
+      <c r="B230" s="200"/>
       <c r="C230" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D230" s="25">
         <v>10</v>
@@ -28896,9 +28896,9 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="186"/>
+      <c r="B231" s="200"/>
       <c r="C231" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D231" s="25">
         <v>10</v>
@@ -29013,9 +29013,9 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="187"/>
+      <c r="B232" s="201"/>
       <c r="C232" s="143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D232" s="27">
         <v>10</v>
@@ -29130,11 +29130,11 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="185">
+      <c r="B233" s="199">
         <v>11</v>
       </c>
       <c r="C233" s="141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D233" s="28">
         <v>1</v>
@@ -29249,9 +29249,9 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="186"/>
+      <c r="B234" s="200"/>
       <c r="C234" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D234" s="25">
         <v>1</v>
@@ -29366,9 +29366,9 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="186"/>
+      <c r="B235" s="200"/>
       <c r="C235" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D235" s="25">
         <v>1</v>
@@ -29483,9 +29483,9 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="186"/>
+      <c r="B236" s="200"/>
       <c r="C236" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D236" s="25">
         <v>1</v>
@@ -29600,9 +29600,9 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="186"/>
+      <c r="B237" s="200"/>
       <c r="C237" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D237" s="25">
         <v>1</v>
@@ -29717,9 +29717,9 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="186"/>
+      <c r="B238" s="200"/>
       <c r="C238" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D238" s="25">
         <v>1</v>
@@ -29834,9 +29834,9 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="186"/>
+      <c r="B239" s="200"/>
       <c r="C239" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D239" s="25">
         <v>2</v>
@@ -29951,9 +29951,9 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="186"/>
+      <c r="B240" s="200"/>
       <c r="C240" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D240" s="25">
         <v>2</v>
@@ -30068,9 +30068,9 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="186"/>
+      <c r="B241" s="200"/>
       <c r="C241" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D241" s="25">
         <v>2</v>
@@ -30185,9 +30185,9 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="186"/>
+      <c r="B242" s="200"/>
       <c r="C242" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D242" s="25">
         <v>2</v>
@@ -30302,9 +30302,9 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="186"/>
+      <c r="B243" s="200"/>
       <c r="C243" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D243" s="25">
         <v>2</v>
@@ -30419,9 +30419,9 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="186"/>
+      <c r="B244" s="200"/>
       <c r="C244" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D244" s="25">
         <v>2</v>
@@ -30536,9 +30536,9 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="186"/>
+      <c r="B245" s="200"/>
       <c r="C245" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D245" s="25">
         <v>3</v>
@@ -30653,9 +30653,9 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="186"/>
+      <c r="B246" s="200"/>
       <c r="C246" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D246" s="25">
         <v>3</v>
@@ -30770,9 +30770,9 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="186"/>
+      <c r="B247" s="200"/>
       <c r="C247" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D247" s="25">
         <v>3</v>
@@ -30887,9 +30887,9 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="186"/>
+      <c r="B248" s="200"/>
       <c r="C248" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D248" s="25">
         <v>3</v>
@@ -31004,9 +31004,9 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="186"/>
+      <c r="B249" s="200"/>
       <c r="C249" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D249" s="25">
         <v>3</v>
@@ -31121,9 +31121,9 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="186"/>
+      <c r="B250" s="200"/>
       <c r="C250" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D250" s="25">
         <v>3</v>
@@ -31238,9 +31238,9 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="186"/>
+      <c r="B251" s="200"/>
       <c r="C251" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D251" s="25">
         <v>4</v>
@@ -31355,9 +31355,9 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="186"/>
+      <c r="B252" s="200"/>
       <c r="C252" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D252" s="25">
         <v>4</v>
@@ -31472,9 +31472,9 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="186"/>
+      <c r="B253" s="200"/>
       <c r="C253" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D253" s="25">
         <v>4</v>
@@ -31589,9 +31589,9 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="186"/>
+      <c r="B254" s="200"/>
       <c r="C254" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D254" s="25">
         <v>4</v>
@@ -31706,9 +31706,9 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="186"/>
+      <c r="B255" s="200"/>
       <c r="C255" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D255" s="25">
         <v>4</v>
@@ -31823,9 +31823,9 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="186"/>
+      <c r="B256" s="200"/>
       <c r="C256" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D256" s="25">
         <v>4</v>
@@ -31940,9 +31940,9 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="186"/>
+      <c r="B257" s="200"/>
       <c r="C257" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D257" s="25">
         <v>5</v>
@@ -32057,9 +32057,9 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="186"/>
+      <c r="B258" s="200"/>
       <c r="C258" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D258" s="25">
         <v>5</v>
@@ -32174,9 +32174,9 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="186"/>
+      <c r="B259" s="200"/>
       <c r="C259" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D259" s="25">
         <v>5</v>
@@ -32291,9 +32291,9 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="186"/>
+      <c r="B260" s="200"/>
       <c r="C260" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D260" s="25">
         <v>5</v>
@@ -32408,9 +32408,9 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="186"/>
+      <c r="B261" s="200"/>
       <c r="C261" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D261" s="25">
         <v>5</v>
@@ -32525,9 +32525,9 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="186"/>
+      <c r="B262" s="200"/>
       <c r="C262" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D262" s="29">
         <v>5</v>
@@ -32642,9 +32642,9 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="186"/>
+      <c r="B263" s="200"/>
       <c r="C263" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D263" s="31">
         <v>6</v>
@@ -32759,9 +32759,9 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="186"/>
+      <c r="B264" s="200"/>
       <c r="C264" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D264" s="25">
         <v>6</v>
@@ -32876,9 +32876,9 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="186"/>
+      <c r="B265" s="200"/>
       <c r="C265" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D265" s="25">
         <v>6</v>
@@ -32993,9 +32993,9 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="186"/>
+      <c r="B266" s="200"/>
       <c r="C266" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D266" s="25">
         <v>6</v>
@@ -33110,9 +33110,9 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="186"/>
+      <c r="B267" s="200"/>
       <c r="C267" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D267" s="25">
         <v>6</v>
@@ -33227,9 +33227,9 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="186"/>
+      <c r="B268" s="200"/>
       <c r="C268" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D268" s="25">
         <v>6</v>
@@ -33344,9 +33344,9 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="186"/>
+      <c r="B269" s="200"/>
       <c r="C269" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D269" s="25">
         <v>7</v>
@@ -33461,9 +33461,9 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="186"/>
+      <c r="B270" s="200"/>
       <c r="C270" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D270" s="25">
         <v>7</v>
@@ -33578,9 +33578,9 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="186"/>
+      <c r="B271" s="200"/>
       <c r="C271" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D271" s="25">
         <v>7</v>
@@ -33695,9 +33695,9 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="186"/>
+      <c r="B272" s="200"/>
       <c r="C272" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D272" s="25">
         <v>7</v>
@@ -33812,9 +33812,9 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="186"/>
+      <c r="B273" s="200"/>
       <c r="C273" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D273" s="25">
         <v>7</v>
@@ -33929,9 +33929,9 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="186"/>
+      <c r="B274" s="200"/>
       <c r="C274" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D274" s="25">
         <v>7</v>
@@ -34046,9 +34046,9 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="186"/>
+      <c r="B275" s="200"/>
       <c r="C275" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D275" s="25">
         <v>8</v>
@@ -34163,9 +34163,9 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="186"/>
+      <c r="B276" s="200"/>
       <c r="C276" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D276" s="25">
         <v>8</v>
@@ -34280,9 +34280,9 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="186"/>
+      <c r="B277" s="200"/>
       <c r="C277" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D277" s="25">
         <v>8</v>
@@ -34397,9 +34397,9 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="186"/>
+      <c r="B278" s="200"/>
       <c r="C278" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D278" s="25">
         <v>8</v>
@@ -34514,9 +34514,9 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="186"/>
+      <c r="B279" s="200"/>
       <c r="C279" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D279" s="25">
         <v>8</v>
@@ -34631,9 +34631,9 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="186"/>
+      <c r="B280" s="200"/>
       <c r="C280" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D280" s="25">
         <v>8</v>
@@ -34748,9 +34748,9 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="186"/>
+      <c r="B281" s="200"/>
       <c r="C281" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D281" s="25">
         <v>9</v>
@@ -34865,9 +34865,9 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="186"/>
+      <c r="B282" s="200"/>
       <c r="C282" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D282" s="25">
         <v>9</v>
@@ -34982,9 +34982,9 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="186"/>
+      <c r="B283" s="200"/>
       <c r="C283" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D283" s="25">
         <v>9</v>
@@ -35099,9 +35099,9 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="186"/>
+      <c r="B284" s="200"/>
       <c r="C284" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D284" s="25">
         <v>9</v>
@@ -35216,9 +35216,9 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="186"/>
+      <c r="B285" s="200"/>
       <c r="C285" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D285" s="25">
         <v>9</v>
@@ -35333,9 +35333,9 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="186"/>
+      <c r="B286" s="200"/>
       <c r="C286" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D286" s="25">
         <v>9</v>
@@ -35450,9 +35450,9 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="186"/>
+      <c r="B287" s="200"/>
       <c r="C287" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D287" s="25">
         <v>10</v>
@@ -35567,9 +35567,9 @@
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="186"/>
+      <c r="B288" s="200"/>
       <c r="C288" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D288" s="25">
         <v>10</v>
@@ -35684,9 +35684,9 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="186"/>
+      <c r="B289" s="200"/>
       <c r="C289" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D289" s="25">
         <v>10</v>
@@ -35801,9 +35801,9 @@
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="186"/>
+      <c r="B290" s="200"/>
       <c r="C290" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D290" s="25">
         <v>10</v>
@@ -35918,9 +35918,9 @@
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="186"/>
+      <c r="B291" s="200"/>
       <c r="C291" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D291" s="25">
         <v>10</v>
@@ -36035,9 +36035,9 @@
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="186"/>
+      <c r="B292" s="200"/>
       <c r="C292" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D292" s="25">
         <v>10</v>
@@ -36152,9 +36152,9 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="186"/>
+      <c r="B293" s="200"/>
       <c r="C293" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D293" s="25">
         <v>11</v>
@@ -36269,9 +36269,9 @@
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="186"/>
+      <c r="B294" s="200"/>
       <c r="C294" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D294" s="25">
         <v>11</v>
@@ -36386,9 +36386,9 @@
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="186"/>
+      <c r="B295" s="200"/>
       <c r="C295" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D295" s="25">
         <v>11</v>
@@ -36503,9 +36503,9 @@
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="186"/>
+      <c r="B296" s="200"/>
       <c r="C296" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D296" s="25">
         <v>11</v>
@@ -36620,9 +36620,9 @@
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="186"/>
+      <c r="B297" s="200"/>
       <c r="C297" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D297" s="25">
         <v>11</v>
@@ -36737,9 +36737,9 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="187"/>
+      <c r="B298" s="201"/>
       <c r="C298" s="143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D298" s="29">
         <v>11</v>
@@ -36854,11 +36854,11 @@
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="186">
+      <c r="B299" s="200">
         <v>12</v>
       </c>
       <c r="C299" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D299" s="31">
         <v>1</v>
@@ -36973,9 +36973,9 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="186"/>
+      <c r="B300" s="200"/>
       <c r="C300" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D300" s="25">
         <v>2</v>
@@ -37090,9 +37090,9 @@
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="186"/>
+      <c r="B301" s="200"/>
       <c r="C301" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D301" s="25">
         <v>3</v>
@@ -37207,9 +37207,9 @@
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="B302" s="186"/>
+      <c r="B302" s="200"/>
       <c r="C302" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D302" s="25">
         <v>4</v>
@@ -37324,9 +37324,9 @@
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" s="186"/>
+      <c r="B303" s="200"/>
       <c r="C303" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D303" s="25">
         <v>5</v>
@@ -37441,9 +37441,9 @@
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="B304" s="186"/>
+      <c r="B304" s="200"/>
       <c r="C304" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D304" s="25">
         <v>6</v>
@@ -37558,9 +37558,9 @@
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" s="186"/>
+      <c r="B305" s="200"/>
       <c r="C305" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D305" s="25">
         <v>7</v>
@@ -37675,9 +37675,9 @@
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" s="186"/>
+      <c r="B306" s="200"/>
       <c r="C306" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D306" s="25">
         <v>8</v>
@@ -37792,9 +37792,9 @@
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" s="186"/>
+      <c r="B307" s="200"/>
       <c r="C307" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D307" s="25">
         <v>9</v>
@@ -37909,9 +37909,9 @@
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" s="186"/>
+      <c r="B308" s="200"/>
       <c r="C308" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D308" s="25">
         <v>10</v>
@@ -38026,9 +38026,9 @@
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" s="186"/>
+      <c r="B309" s="200"/>
       <c r="C309" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D309" s="25">
         <v>11</v>
@@ -38143,9 +38143,9 @@
       <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" s="186"/>
+      <c r="B310" s="200"/>
       <c r="C310" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D310" s="25">
         <v>12</v>
@@ -38260,9 +38260,9 @@
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" s="186"/>
+      <c r="B311" s="200"/>
       <c r="C311" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D311" s="25">
         <v>13</v>
@@ -38377,9 +38377,9 @@
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" s="186"/>
+      <c r="B312" s="200"/>
       <c r="C312" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D312" s="25">
         <v>14</v>
@@ -38494,9 +38494,9 @@
       <c r="A313">
         <v>312</v>
       </c>
-      <c r="B313" s="186"/>
+      <c r="B313" s="200"/>
       <c r="C313" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D313" s="25">
         <v>15</v>
@@ -38611,9 +38611,9 @@
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" s="186"/>
+      <c r="B314" s="200"/>
       <c r="C314" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D314" s="25">
         <v>16</v>
@@ -38728,9 +38728,9 @@
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" s="186"/>
+      <c r="B315" s="200"/>
       <c r="C315" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D315" s="25">
         <v>17</v>
@@ -38845,9 +38845,9 @@
       <c r="A316">
         <v>315</v>
       </c>
-      <c r="B316" s="186"/>
+      <c r="B316" s="200"/>
       <c r="C316" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D316" s="25">
         <v>18</v>
@@ -38962,9 +38962,9 @@
       <c r="A317">
         <v>316</v>
       </c>
-      <c r="B317" s="186"/>
+      <c r="B317" s="200"/>
       <c r="C317" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D317" s="25">
         <v>19</v>
@@ -39079,9 +39079,9 @@
       <c r="A318">
         <v>317</v>
       </c>
-      <c r="B318" s="186"/>
+      <c r="B318" s="200"/>
       <c r="C318" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D318" s="25">
         <v>20</v>
@@ -39196,9 +39196,9 @@
       <c r="A319">
         <v>318</v>
       </c>
-      <c r="B319" s="186"/>
+      <c r="B319" s="200"/>
       <c r="C319" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D319" s="25">
         <v>21</v>
@@ -39313,9 +39313,9 @@
       <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" s="186"/>
+      <c r="B320" s="200"/>
       <c r="C320" s="142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D320" s="27">
         <v>22</v>
@@ -39430,11 +39430,11 @@
       <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" s="188">
+      <c r="B321" s="202">
         <v>13</v>
       </c>
       <c r="C321" s="156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D321" s="13">
         <v>1</v>
@@ -39549,9 +39549,9 @@
       <c r="A322">
         <v>321</v>
       </c>
-      <c r="B322" s="189"/>
+      <c r="B322" s="203"/>
       <c r="C322" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D322" s="17">
         <v>1</v>
@@ -39666,9 +39666,9 @@
       <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" s="189"/>
+      <c r="B323" s="203"/>
       <c r="C323" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D323" s="17">
         <v>1</v>
@@ -39783,9 +39783,9 @@
       <c r="A324">
         <v>323</v>
       </c>
-      <c r="B324" s="189"/>
+      <c r="B324" s="203"/>
       <c r="C324" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D324" s="17">
         <v>1</v>
@@ -39900,9 +39900,9 @@
       <c r="A325">
         <v>324</v>
       </c>
-      <c r="B325" s="189"/>
+      <c r="B325" s="203"/>
       <c r="C325" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D325" s="21">
         <v>1</v>
@@ -40017,9 +40017,9 @@
       <c r="A326">
         <v>325</v>
       </c>
-      <c r="B326" s="189"/>
+      <c r="B326" s="203"/>
       <c r="C326" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D326" s="13">
         <v>2</v>
@@ -40134,9 +40134,9 @@
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" s="189"/>
+      <c r="B327" s="203"/>
       <c r="C327" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D327" s="17">
         <v>2</v>
@@ -40251,9 +40251,9 @@
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="B328" s="189"/>
+      <c r="B328" s="203"/>
       <c r="C328" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D328" s="17">
         <v>2</v>
@@ -40368,9 +40368,9 @@
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329" s="189"/>
+      <c r="B329" s="203"/>
       <c r="C329" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D329" s="21">
         <v>2</v>
@@ -40485,9 +40485,9 @@
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="B330" s="189"/>
+      <c r="B330" s="203"/>
       <c r="C330" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D330" s="13">
         <v>3</v>
@@ -40602,9 +40602,9 @@
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="B331" s="189"/>
+      <c r="B331" s="203"/>
       <c r="C331" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D331" s="17">
         <v>3</v>
@@ -40719,9 +40719,9 @@
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="B332" s="189"/>
+      <c r="B332" s="203"/>
       <c r="C332" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D332" s="21">
         <v>3</v>
@@ -40836,9 +40836,9 @@
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="B333" s="189"/>
+      <c r="B333" s="203"/>
       <c r="C333" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D333" s="31">
         <v>4</v>
@@ -40953,9 +40953,9 @@
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" s="189"/>
+      <c r="B334" s="203"/>
       <c r="C334" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D334" s="25">
         <v>4</v>
@@ -41070,9 +41070,9 @@
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" s="189"/>
+      <c r="B335" s="203"/>
       <c r="C335" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D335" s="27">
         <v>4</v>
@@ -41187,9 +41187,9 @@
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" s="189"/>
+      <c r="B336" s="203"/>
       <c r="C336" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D336" s="13">
         <v>5</v>
@@ -41304,9 +41304,9 @@
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" s="189"/>
+      <c r="B337" s="203"/>
       <c r="C337" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D337" s="17">
         <v>5</v>
@@ -41421,9 +41421,9 @@
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" s="189"/>
+      <c r="B338" s="203"/>
       <c r="C338" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D338" s="17">
         <v>5</v>
@@ -41538,9 +41538,9 @@
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="B339" s="189"/>
+      <c r="B339" s="203"/>
       <c r="C339" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D339" s="17">
         <v>5</v>
@@ -41655,9 +41655,9 @@
       <c r="A340">
         <v>339</v>
       </c>
-      <c r="B340" s="189"/>
+      <c r="B340" s="203"/>
       <c r="C340" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D340" s="21">
         <v>5</v>
@@ -41772,9 +41772,9 @@
       <c r="A341">
         <v>340</v>
       </c>
-      <c r="B341" s="189"/>
+      <c r="B341" s="203"/>
       <c r="C341" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D341" s="13">
         <v>6</v>
@@ -41889,9 +41889,9 @@
       <c r="A342">
         <v>341</v>
       </c>
-      <c r="B342" s="189"/>
+      <c r="B342" s="203"/>
       <c r="C342" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D342" s="17">
         <v>6</v>
@@ -42006,9 +42006,9 @@
       <c r="A343">
         <v>342</v>
       </c>
-      <c r="B343" s="189"/>
+      <c r="B343" s="203"/>
       <c r="C343" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D343" s="17">
         <v>6</v>
@@ -42123,9 +42123,9 @@
       <c r="A344">
         <v>343</v>
       </c>
-      <c r="B344" s="189"/>
+      <c r="B344" s="203"/>
       <c r="C344" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D344" s="17">
         <v>6</v>
@@ -42240,9 +42240,9 @@
       <c r="A345">
         <v>344</v>
       </c>
-      <c r="B345" s="189"/>
+      <c r="B345" s="203"/>
       <c r="C345" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D345" s="17">
         <v>6</v>
@@ -42357,9 +42357,9 @@
       <c r="A346">
         <v>345</v>
       </c>
-      <c r="B346" s="189"/>
+      <c r="B346" s="203"/>
       <c r="C346" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D346" s="21">
         <v>6</v>
@@ -42474,9 +42474,9 @@
       <c r="A347">
         <v>346</v>
       </c>
-      <c r="B347" s="189"/>
+      <c r="B347" s="203"/>
       <c r="C347" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D347" s="31">
         <v>7</v>
@@ -42591,9 +42591,9 @@
       <c r="A348">
         <v>347</v>
       </c>
-      <c r="B348" s="189"/>
+      <c r="B348" s="203"/>
       <c r="C348" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D348" s="25">
         <v>7</v>
@@ -42708,9 +42708,9 @@
       <c r="A349">
         <v>348</v>
       </c>
-      <c r="B349" s="189"/>
+      <c r="B349" s="203"/>
       <c r="C349" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D349" s="25">
         <v>7</v>
@@ -42825,9 +42825,9 @@
       <c r="A350">
         <v>349</v>
       </c>
-      <c r="B350" s="189"/>
+      <c r="B350" s="203"/>
       <c r="C350" s="157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D350" s="27">
         <v>7</v>
@@ -42942,9 +42942,9 @@
       <c r="A351">
         <v>350</v>
       </c>
-      <c r="B351" s="193"/>
+      <c r="B351" s="204"/>
       <c r="C351" s="158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D351" s="35">
         <v>8</v>
@@ -43059,11 +43059,11 @@
       <c r="A352">
         <v>351</v>
       </c>
-      <c r="B352" s="185">
+      <c r="B352" s="199">
         <v>14</v>
       </c>
       <c r="C352" s="141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D352" s="28">
         <v>1</v>
@@ -43178,9 +43178,9 @@
       <c r="A353">
         <v>352</v>
       </c>
-      <c r="B353" s="186"/>
+      <c r="B353" s="200"/>
       <c r="C353" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D353" s="25">
         <v>1</v>
@@ -43295,9 +43295,9 @@
       <c r="A354">
         <v>353</v>
       </c>
-      <c r="B354" s="186"/>
+      <c r="B354" s="200"/>
       <c r="C354" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D354" s="25">
         <v>1</v>
@@ -43412,9 +43412,9 @@
       <c r="A355">
         <v>354</v>
       </c>
-      <c r="B355" s="186"/>
+      <c r="B355" s="200"/>
       <c r="C355" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D355" s="25">
         <v>1</v>
@@ -43529,9 +43529,9 @@
       <c r="A356">
         <v>355</v>
       </c>
-      <c r="B356" s="186"/>
+      <c r="B356" s="200"/>
       <c r="C356" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D356" s="25">
         <v>1</v>
@@ -43646,9 +43646,9 @@
       <c r="A357">
         <v>356</v>
       </c>
-      <c r="B357" s="186"/>
+      <c r="B357" s="200"/>
       <c r="C357" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D357" s="25">
         <v>1</v>
@@ -43763,9 +43763,9 @@
       <c r="A358">
         <v>357</v>
       </c>
-      <c r="B358" s="186"/>
+      <c r="B358" s="200"/>
       <c r="C358" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D358" s="25">
         <v>1</v>
@@ -43880,9 +43880,9 @@
       <c r="A359">
         <v>358</v>
       </c>
-      <c r="B359" s="186"/>
+      <c r="B359" s="200"/>
       <c r="C359" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D359" s="29">
         <v>1</v>
@@ -43997,9 +43997,9 @@
       <c r="A360">
         <v>359</v>
       </c>
-      <c r="B360" s="186"/>
+      <c r="B360" s="200"/>
       <c r="C360" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D360" s="31">
         <v>2</v>
@@ -44114,9 +44114,9 @@
       <c r="A361">
         <v>360</v>
       </c>
-      <c r="B361" s="186"/>
+      <c r="B361" s="200"/>
       <c r="C361" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D361" s="25">
         <v>2</v>
@@ -44231,9 +44231,9 @@
       <c r="A362">
         <v>361</v>
       </c>
-      <c r="B362" s="186"/>
+      <c r="B362" s="200"/>
       <c r="C362" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D362" s="25">
         <v>2</v>
@@ -44348,9 +44348,9 @@
       <c r="A363">
         <v>362</v>
       </c>
-      <c r="B363" s="186"/>
+      <c r="B363" s="200"/>
       <c r="C363" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D363" s="25">
         <v>2</v>
@@ -44465,9 +44465,9 @@
       <c r="A364">
         <v>363</v>
       </c>
-      <c r="B364" s="186"/>
+      <c r="B364" s="200"/>
       <c r="C364" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D364" s="25">
         <v>2</v>
@@ -44582,9 +44582,9 @@
       <c r="A365">
         <v>364</v>
       </c>
-      <c r="B365" s="186"/>
+      <c r="B365" s="200"/>
       <c r="C365" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D365" s="25">
         <v>2</v>
@@ -44699,9 +44699,9 @@
       <c r="A366">
         <v>365</v>
       </c>
-      <c r="B366" s="186"/>
+      <c r="B366" s="200"/>
       <c r="C366" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D366" s="25">
         <v>2</v>
@@ -44816,9 +44816,9 @@
       <c r="A367">
         <v>366</v>
       </c>
-      <c r="B367" s="186"/>
+      <c r="B367" s="200"/>
       <c r="C367" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D367" s="25">
         <v>2</v>
@@ -44933,9 +44933,9 @@
       <c r="A368">
         <v>367</v>
       </c>
-      <c r="B368" s="186"/>
+      <c r="B368" s="200"/>
       <c r="C368" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D368" s="25">
         <v>2</v>
@@ -45050,9 +45050,9 @@
       <c r="A369">
         <v>368</v>
       </c>
-      <c r="B369" s="186"/>
+      <c r="B369" s="200"/>
       <c r="C369" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D369" s="25">
         <v>2</v>
@@ -45167,9 +45167,9 @@
       <c r="A370">
         <v>369</v>
       </c>
-      <c r="B370" s="186"/>
+      <c r="B370" s="200"/>
       <c r="C370" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D370" s="29">
         <v>2</v>
@@ -45284,9 +45284,9 @@
       <c r="A371">
         <v>370</v>
       </c>
-      <c r="B371" s="186"/>
+      <c r="B371" s="200"/>
       <c r="C371" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D371" s="31">
         <v>3</v>
@@ -45401,9 +45401,9 @@
       <c r="A372">
         <v>371</v>
       </c>
-      <c r="B372" s="186"/>
+      <c r="B372" s="200"/>
       <c r="C372" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D372" s="25">
         <v>3</v>
@@ -45518,9 +45518,9 @@
       <c r="A373">
         <v>372</v>
       </c>
-      <c r="B373" s="186"/>
+      <c r="B373" s="200"/>
       <c r="C373" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D373" s="25">
         <v>3</v>
@@ -45635,9 +45635,9 @@
       <c r="A374">
         <v>373</v>
       </c>
-      <c r="B374" s="186"/>
+      <c r="B374" s="200"/>
       <c r="C374" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D374" s="25">
         <v>3</v>
@@ -45752,9 +45752,9 @@
       <c r="A375">
         <v>374</v>
       </c>
-      <c r="B375" s="186"/>
+      <c r="B375" s="200"/>
       <c r="C375" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D375" s="25">
         <v>3</v>
@@ -45869,9 +45869,9 @@
       <c r="A376">
         <v>375</v>
       </c>
-      <c r="B376" s="186"/>
+      <c r="B376" s="200"/>
       <c r="C376" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D376" s="25">
         <v>3</v>
@@ -45986,9 +45986,9 @@
       <c r="A377">
         <v>376</v>
       </c>
-      <c r="B377" s="186"/>
+      <c r="B377" s="200"/>
       <c r="C377" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D377" s="25">
         <v>3</v>
@@ -46103,9 +46103,9 @@
       <c r="A378">
         <v>377</v>
       </c>
-      <c r="B378" s="186"/>
+      <c r="B378" s="200"/>
       <c r="C378" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D378" s="25">
         <v>3</v>
@@ -46220,9 +46220,9 @@
       <c r="A379">
         <v>378</v>
       </c>
-      <c r="B379" s="186"/>
+      <c r="B379" s="200"/>
       <c r="C379" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D379" s="25">
         <v>3</v>
@@ -46337,9 +46337,9 @@
       <c r="A380">
         <v>379</v>
       </c>
-      <c r="B380" s="186"/>
+      <c r="B380" s="200"/>
       <c r="C380" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D380" s="25">
         <v>3</v>
@@ -46454,9 +46454,9 @@
       <c r="A381">
         <v>380</v>
       </c>
-      <c r="B381" s="187"/>
+      <c r="B381" s="201"/>
       <c r="C381" s="143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D381" s="29">
         <v>3</v>
@@ -46571,11 +46571,11 @@
       <c r="A382">
         <v>381</v>
       </c>
-      <c r="B382" s="185">
+      <c r="B382" s="199">
         <v>15</v>
       </c>
       <c r="C382" s="141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D382" s="41">
         <v>1</v>
@@ -46690,9 +46690,9 @@
       <c r="A383">
         <v>382</v>
       </c>
-      <c r="B383" s="186"/>
+      <c r="B383" s="200"/>
       <c r="C383" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D383" s="42">
         <v>1</v>
@@ -46807,9 +46807,9 @@
       <c r="A384">
         <v>383</v>
       </c>
-      <c r="B384" s="186"/>
+      <c r="B384" s="200"/>
       <c r="C384" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D384" s="43">
         <v>2</v>
@@ -46924,9 +46924,9 @@
       <c r="A385">
         <v>384</v>
       </c>
-      <c r="B385" s="186"/>
+      <c r="B385" s="200"/>
       <c r="C385" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D385" s="44">
         <v>2</v>
@@ -47041,9 +47041,9 @@
       <c r="A386">
         <v>385</v>
       </c>
-      <c r="B386" s="186"/>
+      <c r="B386" s="200"/>
       <c r="C386" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D386" s="44">
         <v>2</v>
@@ -47158,9 +47158,9 @@
       <c r="A387">
         <v>386</v>
       </c>
-      <c r="B387" s="186"/>
+      <c r="B387" s="200"/>
       <c r="C387" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D387" s="44">
         <v>2</v>
@@ -47275,9 +47275,9 @@
       <c r="A388">
         <v>387</v>
       </c>
-      <c r="B388" s="186"/>
+      <c r="B388" s="200"/>
       <c r="C388" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D388" s="42">
         <v>2</v>
@@ -47392,9 +47392,9 @@
       <c r="A389">
         <v>388</v>
       </c>
-      <c r="B389" s="186"/>
+      <c r="B389" s="200"/>
       <c r="C389" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D389" s="43">
         <v>3</v>
@@ -47509,9 +47509,9 @@
       <c r="A390">
         <v>389</v>
       </c>
-      <c r="B390" s="186"/>
+      <c r="B390" s="200"/>
       <c r="C390" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D390" s="42">
         <v>3</v>
@@ -47626,9 +47626,9 @@
       <c r="A391">
         <v>390</v>
       </c>
-      <c r="B391" s="186"/>
+      <c r="B391" s="200"/>
       <c r="C391" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D391" s="43">
         <v>4</v>
@@ -47743,9 +47743,9 @@
       <c r="A392">
         <v>391</v>
       </c>
-      <c r="B392" s="186"/>
+      <c r="B392" s="200"/>
       <c r="C392" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D392" s="44">
         <v>4</v>
@@ -47860,9 +47860,9 @@
       <c r="A393">
         <v>392</v>
       </c>
-      <c r="B393" s="186"/>
+      <c r="B393" s="200"/>
       <c r="C393" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D393" s="44">
         <v>4</v>
@@ -47977,9 +47977,9 @@
       <c r="A394">
         <v>393</v>
       </c>
-      <c r="B394" s="186"/>
+      <c r="B394" s="200"/>
       <c r="C394" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D394" s="44">
         <v>4</v>
@@ -48094,9 +48094,9 @@
       <c r="A395">
         <v>394</v>
       </c>
-      <c r="B395" s="186"/>
+      <c r="B395" s="200"/>
       <c r="C395" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D395" s="44">
         <v>4</v>
@@ -48211,9 +48211,9 @@
       <c r="A396">
         <v>395</v>
       </c>
-      <c r="B396" s="186"/>
+      <c r="B396" s="200"/>
       <c r="C396" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D396" s="44">
         <v>4</v>
@@ -48328,9 +48328,9 @@
       <c r="A397">
         <v>396</v>
       </c>
-      <c r="B397" s="186"/>
+      <c r="B397" s="200"/>
       <c r="C397" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D397" s="44">
         <v>4</v>
@@ -48445,9 +48445,9 @@
       <c r="A398">
         <v>397</v>
       </c>
-      <c r="B398" s="186"/>
+      <c r="B398" s="200"/>
       <c r="C398" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D398" s="44">
         <v>4</v>
@@ -48562,9 +48562,9 @@
       <c r="A399">
         <v>398</v>
       </c>
-      <c r="B399" s="186"/>
+      <c r="B399" s="200"/>
       <c r="C399" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D399" s="44">
         <v>4</v>
@@ -48679,9 +48679,9 @@
       <c r="A400">
         <v>399</v>
       </c>
-      <c r="B400" s="186"/>
+      <c r="B400" s="200"/>
       <c r="C400" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D400" s="44">
         <v>4</v>
@@ -48796,9 +48796,9 @@
       <c r="A401">
         <v>400</v>
       </c>
-      <c r="B401" s="186"/>
+      <c r="B401" s="200"/>
       <c r="C401" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D401" s="42">
         <v>4</v>
@@ -48913,9 +48913,9 @@
       <c r="A402">
         <v>401</v>
       </c>
-      <c r="B402" s="186"/>
+      <c r="B402" s="200"/>
       <c r="C402" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D402" s="43">
         <v>5</v>
@@ -49030,9 +49030,9 @@
       <c r="A403">
         <v>402</v>
       </c>
-      <c r="B403" s="186"/>
+      <c r="B403" s="200"/>
       <c r="C403" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D403" s="44">
         <v>5</v>
@@ -49147,9 +49147,9 @@
       <c r="A404">
         <v>403</v>
       </c>
-      <c r="B404" s="186"/>
+      <c r="B404" s="200"/>
       <c r="C404" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D404" s="44">
         <v>5</v>
@@ -49264,9 +49264,9 @@
       <c r="A405">
         <v>404</v>
       </c>
-      <c r="B405" s="186"/>
+      <c r="B405" s="200"/>
       <c r="C405" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D405" s="44">
         <v>5</v>
@@ -49381,9 +49381,9 @@
       <c r="A406">
         <v>405</v>
       </c>
-      <c r="B406" s="186"/>
+      <c r="B406" s="200"/>
       <c r="C406" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D406" s="44">
         <v>5</v>
@@ -49498,9 +49498,9 @@
       <c r="A407">
         <v>406</v>
       </c>
-      <c r="B407" s="186"/>
+      <c r="B407" s="200"/>
       <c r="C407" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D407" s="44">
         <v>5</v>
@@ -49615,9 +49615,9 @@
       <c r="A408">
         <v>407</v>
       </c>
-      <c r="B408" s="186"/>
+      <c r="B408" s="200"/>
       <c r="C408" s="142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D408" s="44">
         <v>5</v>
@@ -49732,9 +49732,9 @@
       <c r="A409">
         <v>408</v>
       </c>
-      <c r="B409" s="187"/>
+      <c r="B409" s="201"/>
       <c r="C409" s="143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D409" s="45">
         <v>5</v>
@@ -49849,11 +49849,11 @@
       <c r="A410">
         <v>409</v>
       </c>
-      <c r="B410" s="185">
+      <c r="B410" s="199">
         <v>16</v>
       </c>
       <c r="C410" s="141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D410" s="29">
         <v>1</v>
@@ -49968,9 +49968,9 @@
       <c r="A411">
         <v>410</v>
       </c>
-      <c r="B411" s="186"/>
+      <c r="B411" s="200"/>
       <c r="C411" s="142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D411" s="29">
         <v>2</v>
@@ -50085,9 +50085,9 @@
       <c r="A412">
         <v>411</v>
       </c>
-      <c r="B412" s="186"/>
+      <c r="B412" s="200"/>
       <c r="C412" s="142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D412" s="29">
         <v>3</v>
@@ -50202,9 +50202,9 @@
       <c r="A413">
         <v>412</v>
       </c>
-      <c r="B413" s="186"/>
+      <c r="B413" s="200"/>
       <c r="C413" s="142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D413" s="29">
         <v>4</v>
@@ -50319,9 +50319,9 @@
       <c r="A414">
         <v>413</v>
       </c>
-      <c r="B414" s="186"/>
+      <c r="B414" s="200"/>
       <c r="C414" s="142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D414" s="29">
         <v>5</v>
@@ -50436,9 +50436,9 @@
       <c r="A415">
         <v>414</v>
       </c>
-      <c r="B415" s="187"/>
+      <c r="B415" s="201"/>
       <c r="C415" s="143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D415" s="25">
         <v>6</v>
@@ -50553,11 +50553,11 @@
       <c r="A416">
         <v>415</v>
       </c>
-      <c r="B416" s="186">
+      <c r="B416" s="200">
         <v>17</v>
       </c>
       <c r="C416" s="142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D416" s="25">
         <v>1</v>
@@ -50672,9 +50672,9 @@
       <c r="A417">
         <v>416</v>
       </c>
-      <c r="B417" s="186"/>
+      <c r="B417" s="200"/>
       <c r="C417" s="142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D417" s="31">
         <v>1</v>
@@ -50789,9 +50789,9 @@
       <c r="A418">
         <v>417</v>
       </c>
-      <c r="B418" s="186"/>
+      <c r="B418" s="200"/>
       <c r="C418" s="142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D418" s="25">
         <v>1</v>
@@ -50906,9 +50906,9 @@
       <c r="A419">
         <v>418</v>
       </c>
-      <c r="B419" s="186"/>
+      <c r="B419" s="200"/>
       <c r="C419" s="142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D419" s="25">
         <v>1</v>
@@ -51023,9 +51023,9 @@
       <c r="A420">
         <v>419</v>
       </c>
-      <c r="B420" s="194"/>
+      <c r="B420" s="205"/>
       <c r="C420" s="144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D420" s="27">
         <v>1</v>
@@ -51140,11 +51140,11 @@
       <c r="A421">
         <v>420</v>
       </c>
-      <c r="B421" s="185">
+      <c r="B421" s="199">
         <v>18</v>
       </c>
       <c r="C421" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D421" s="28">
         <v>1</v>
@@ -51259,9 +51259,9 @@
       <c r="A422">
         <v>421</v>
       </c>
-      <c r="B422" s="186"/>
+      <c r="B422" s="200"/>
       <c r="C422" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D422" s="25">
         <v>1</v>
@@ -51376,9 +51376,9 @@
       <c r="A423">
         <v>422</v>
       </c>
-      <c r="B423" s="186"/>
+      <c r="B423" s="200"/>
       <c r="C423" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D423" s="25">
         <v>1</v>
@@ -51493,9 +51493,9 @@
       <c r="A424">
         <v>423</v>
       </c>
-      <c r="B424" s="186"/>
+      <c r="B424" s="200"/>
       <c r="C424" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D424" s="25">
         <v>1</v>
@@ -51610,9 +51610,9 @@
       <c r="A425">
         <v>424</v>
       </c>
-      <c r="B425" s="186"/>
+      <c r="B425" s="200"/>
       <c r="C425" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D425" s="25">
         <v>1</v>
@@ -51727,9 +51727,9 @@
       <c r="A426">
         <v>425</v>
       </c>
-      <c r="B426" s="186"/>
+      <c r="B426" s="200"/>
       <c r="C426" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D426" s="25">
         <v>1</v>
@@ -51844,9 +51844,9 @@
       <c r="A427">
         <v>426</v>
       </c>
-      <c r="B427" s="186"/>
+      <c r="B427" s="200"/>
       <c r="C427" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D427" s="25">
         <v>1</v>
@@ -51961,9 +51961,9 @@
       <c r="A428">
         <v>427</v>
       </c>
-      <c r="B428" s="186"/>
+      <c r="B428" s="200"/>
       <c r="C428" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D428" s="25">
         <v>1</v>
@@ -52078,9 +52078,9 @@
       <c r="A429">
         <v>428</v>
       </c>
-      <c r="B429" s="186"/>
+      <c r="B429" s="200"/>
       <c r="C429" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D429" s="25">
         <v>1</v>
@@ -52195,9 +52195,9 @@
       <c r="A430">
         <v>429</v>
       </c>
-      <c r="B430" s="186"/>
+      <c r="B430" s="200"/>
       <c r="C430" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D430" s="25">
         <v>1</v>
@@ -52312,9 +52312,9 @@
       <c r="A431">
         <v>430</v>
       </c>
-      <c r="B431" s="186"/>
+      <c r="B431" s="200"/>
       <c r="C431" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D431" s="25">
         <v>1</v>
@@ -52429,9 +52429,9 @@
       <c r="A432">
         <v>431</v>
       </c>
-      <c r="B432" s="186"/>
+      <c r="B432" s="200"/>
       <c r="C432" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D432" s="25">
         <v>1</v>
@@ -52546,9 +52546,9 @@
       <c r="A433">
         <v>432</v>
       </c>
-      <c r="B433" s="186"/>
+      <c r="B433" s="200"/>
       <c r="C433" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D433" s="25">
         <v>1</v>
@@ -52663,9 +52663,9 @@
       <c r="A434">
         <v>433</v>
       </c>
-      <c r="B434" s="186"/>
+      <c r="B434" s="200"/>
       <c r="C434" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D434" s="25">
         <v>1</v>
@@ -52780,9 +52780,9 @@
       <c r="A435">
         <v>434</v>
       </c>
-      <c r="B435" s="186"/>
+      <c r="B435" s="200"/>
       <c r="C435" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D435" s="25">
         <v>1</v>
@@ -52897,9 +52897,9 @@
       <c r="A436">
         <v>435</v>
       </c>
-      <c r="B436" s="186"/>
+      <c r="B436" s="200"/>
       <c r="C436" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D436" s="25">
         <v>1</v>
@@ -53014,9 +53014,9 @@
       <c r="A437">
         <v>436</v>
       </c>
-      <c r="B437" s="186"/>
+      <c r="B437" s="200"/>
       <c r="C437" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D437" s="25">
         <v>1</v>
@@ -53131,9 +53131,9 @@
       <c r="A438">
         <v>437</v>
       </c>
-      <c r="B438" s="186"/>
+      <c r="B438" s="200"/>
       <c r="C438" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D438" s="25">
         <v>1</v>
@@ -53248,9 +53248,9 @@
       <c r="A439">
         <v>438</v>
       </c>
-      <c r="B439" s="186"/>
+      <c r="B439" s="200"/>
       <c r="C439" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D439" s="25">
         <v>1</v>
@@ -53365,9 +53365,9 @@
       <c r="A440">
         <v>439</v>
       </c>
-      <c r="B440" s="186"/>
+      <c r="B440" s="200"/>
       <c r="C440" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D440" s="25">
         <v>1</v>
@@ -53482,9 +53482,9 @@
       <c r="A441">
         <v>440</v>
       </c>
-      <c r="B441" s="186"/>
+      <c r="B441" s="200"/>
       <c r="C441" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D441" s="25">
         <v>1</v>
@@ -53599,9 +53599,9 @@
       <c r="A442">
         <v>441</v>
       </c>
-      <c r="B442" s="186"/>
+      <c r="B442" s="200"/>
       <c r="C442" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D442" s="25">
         <v>1</v>
@@ -53716,9 +53716,9 @@
       <c r="A443">
         <v>442</v>
       </c>
-      <c r="B443" s="186"/>
+      <c r="B443" s="200"/>
       <c r="C443" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D443" s="25">
         <v>1</v>
@@ -53833,9 +53833,9 @@
       <c r="A444">
         <v>443</v>
       </c>
-      <c r="B444" s="186"/>
+      <c r="B444" s="200"/>
       <c r="C444" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D444" s="25">
         <v>1</v>
@@ -53950,9 +53950,9 @@
       <c r="A445">
         <v>444</v>
       </c>
-      <c r="B445" s="186"/>
+      <c r="B445" s="200"/>
       <c r="C445" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D445" s="25">
         <v>1</v>
@@ -54067,9 +54067,9 @@
       <c r="A446">
         <v>445</v>
       </c>
-      <c r="B446" s="186"/>
+      <c r="B446" s="200"/>
       <c r="C446" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D446" s="25">
         <v>1</v>
@@ -54184,9 +54184,9 @@
       <c r="A447">
         <v>446</v>
       </c>
-      <c r="B447" s="186"/>
+      <c r="B447" s="200"/>
       <c r="C447" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D447" s="25">
         <v>1</v>
@@ -54301,9 +54301,9 @@
       <c r="A448">
         <v>447</v>
       </c>
-      <c r="B448" s="186"/>
+      <c r="B448" s="200"/>
       <c r="C448" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D448" s="25">
         <v>1</v>
@@ -54418,9 +54418,9 @@
       <c r="A449">
         <v>448</v>
       </c>
-      <c r="B449" s="186"/>
+      <c r="B449" s="200"/>
       <c r="C449" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D449" s="25">
         <v>1</v>
@@ -54535,9 +54535,9 @@
       <c r="A450">
         <v>449</v>
       </c>
-      <c r="B450" s="186"/>
+      <c r="B450" s="200"/>
       <c r="C450" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D450" s="25">
         <v>1</v>
@@ -54652,9 +54652,9 @@
       <c r="A451">
         <v>450</v>
       </c>
-      <c r="B451" s="186"/>
+      <c r="B451" s="200"/>
       <c r="C451" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D451" s="25">
         <v>1</v>
@@ -54769,9 +54769,9 @@
       <c r="A452">
         <v>451</v>
       </c>
-      <c r="B452" s="186"/>
+      <c r="B452" s="200"/>
       <c r="C452" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D452" s="25">
         <v>1</v>
@@ -54886,9 +54886,9 @@
       <c r="A453">
         <v>452</v>
       </c>
-      <c r="B453" s="186"/>
+      <c r="B453" s="200"/>
       <c r="C453" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D453" s="25">
         <v>1</v>
@@ -55003,9 +55003,9 @@
       <c r="A454">
         <v>453</v>
       </c>
-      <c r="B454" s="186"/>
+      <c r="B454" s="200"/>
       <c r="C454" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D454" s="25">
         <v>1</v>
@@ -55120,9 +55120,9 @@
       <c r="A455">
         <v>454</v>
       </c>
-      <c r="B455" s="186"/>
+      <c r="B455" s="200"/>
       <c r="C455" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D455" s="25">
         <v>1</v>
@@ -55237,9 +55237,9 @@
       <c r="A456">
         <v>455</v>
       </c>
-      <c r="B456" s="186"/>
+      <c r="B456" s="200"/>
       <c r="C456" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D456" s="25">
         <v>1</v>
@@ -55354,9 +55354,9 @@
       <c r="A457">
         <v>456</v>
       </c>
-      <c r="B457" s="186"/>
+      <c r="B457" s="200"/>
       <c r="C457" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D457" s="25">
         <v>1</v>
@@ -55471,9 +55471,9 @@
       <c r="A458">
         <v>457</v>
       </c>
-      <c r="B458" s="186"/>
+      <c r="B458" s="200"/>
       <c r="C458" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D458" s="25">
         <v>1</v>
@@ -55588,9 +55588,9 @@
       <c r="A459">
         <v>458</v>
       </c>
-      <c r="B459" s="186"/>
+      <c r="B459" s="200"/>
       <c r="C459" s="146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D459" s="25">
         <v>1</v>
@@ -55705,9 +55705,9 @@
       <c r="A460">
         <v>459</v>
       </c>
-      <c r="B460" s="187"/>
+      <c r="B460" s="201"/>
       <c r="C460" s="147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D460" s="27">
         <v>1</v>
@@ -55822,11 +55822,11 @@
       <c r="A461">
         <v>460</v>
       </c>
-      <c r="B461" s="188">
+      <c r="B461" s="202">
         <v>19</v>
       </c>
       <c r="C461" s="148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D461" s="46">
         <v>1</v>
@@ -55941,9 +55941,9 @@
       <c r="A462">
         <v>461</v>
       </c>
-      <c r="B462" s="189"/>
+      <c r="B462" s="203"/>
       <c r="C462" s="149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D462" s="47">
         <v>2</v>
@@ -56058,9 +56058,9 @@
       <c r="A463">
         <v>462</v>
       </c>
-      <c r="B463" s="189"/>
+      <c r="B463" s="203"/>
       <c r="C463" s="149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D463" s="47">
         <v>3</v>
@@ -56175,9 +56175,9 @@
       <c r="A464">
         <v>463</v>
       </c>
-      <c r="B464" s="189"/>
+      <c r="B464" s="203"/>
       <c r="C464" s="149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D464" s="47">
         <v>4</v>
@@ -56292,9 +56292,9 @@
       <c r="A465">
         <v>464</v>
       </c>
-      <c r="B465" s="189"/>
+      <c r="B465" s="203"/>
       <c r="C465" s="149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D465" s="47">
         <v>5</v>
@@ -56409,9 +56409,9 @@
       <c r="A466">
         <v>465</v>
       </c>
-      <c r="B466" s="189"/>
+      <c r="B466" s="203"/>
       <c r="C466" s="149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D466" s="47">
         <v>6</v>
@@ -56526,9 +56526,9 @@
       <c r="A467">
         <v>466</v>
       </c>
-      <c r="B467" s="189"/>
+      <c r="B467" s="203"/>
       <c r="C467" s="149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D467" s="47">
         <v>7</v>
@@ -56643,9 +56643,9 @@
       <c r="A468">
         <v>467</v>
       </c>
-      <c r="B468" s="189"/>
+      <c r="B468" s="203"/>
       <c r="C468" s="149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D468" s="47">
         <v>8</v>
@@ -56760,9 +56760,9 @@
       <c r="A469">
         <v>468</v>
       </c>
-      <c r="B469" s="189"/>
+      <c r="B469" s="203"/>
       <c r="C469" s="149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D469" s="47">
         <v>9</v>
@@ -56877,9 +56877,9 @@
       <c r="A470">
         <v>469</v>
       </c>
-      <c r="B470" s="189"/>
+      <c r="B470" s="203"/>
       <c r="C470" s="149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D470" s="48">
         <v>10</v>
@@ -56994,11 +56994,11 @@
       <c r="A471">
         <v>470</v>
       </c>
-      <c r="B471" s="195">
+      <c r="B471" s="206">
         <v>20</v>
       </c>
       <c r="C471" s="150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D471" s="49">
         <v>1</v>
@@ -57113,9 +57113,9 @@
       <c r="A472">
         <v>471</v>
       </c>
-      <c r="B472" s="196"/>
+      <c r="B472" s="207"/>
       <c r="C472" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D472" s="52">
         <v>1</v>
@@ -57230,9 +57230,9 @@
       <c r="A473">
         <v>472</v>
       </c>
-      <c r="B473" s="196"/>
+      <c r="B473" s="207"/>
       <c r="C473" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D473" s="52">
         <v>1</v>
@@ -57347,9 +57347,9 @@
       <c r="A474">
         <v>473</v>
       </c>
-      <c r="B474" s="196"/>
+      <c r="B474" s="207"/>
       <c r="C474" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D474" s="52">
         <v>1</v>
@@ -57464,9 +57464,9 @@
       <c r="A475">
         <v>474</v>
       </c>
-      <c r="B475" s="196"/>
+      <c r="B475" s="207"/>
       <c r="C475" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D475" s="52">
         <v>1</v>
@@ -57581,9 +57581,9 @@
       <c r="A476">
         <v>475</v>
       </c>
-      <c r="B476" s="196"/>
+      <c r="B476" s="207"/>
       <c r="C476" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D476" s="55">
         <v>1</v>
@@ -57698,9 +57698,9 @@
       <c r="A477">
         <v>476</v>
       </c>
-      <c r="B477" s="196"/>
+      <c r="B477" s="207"/>
       <c r="C477" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D477" s="49">
         <v>2</v>
@@ -57815,9 +57815,9 @@
       <c r="A478">
         <v>477</v>
       </c>
-      <c r="B478" s="196"/>
+      <c r="B478" s="207"/>
       <c r="C478" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D478" s="52">
         <v>2</v>
@@ -57932,9 +57932,9 @@
       <c r="A479">
         <v>478</v>
       </c>
-      <c r="B479" s="196"/>
+      <c r="B479" s="207"/>
       <c r="C479" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D479" s="52">
         <v>2</v>
@@ -58049,9 +58049,9 @@
       <c r="A480">
         <v>479</v>
       </c>
-      <c r="B480" s="196"/>
+      <c r="B480" s="207"/>
       <c r="C480" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D480" s="52">
         <v>2</v>
@@ -58166,9 +58166,9 @@
       <c r="A481">
         <v>480</v>
       </c>
-      <c r="B481" s="196"/>
+      <c r="B481" s="207"/>
       <c r="C481" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D481" s="52">
         <v>2</v>
@@ -58283,9 +58283,9 @@
       <c r="A482">
         <v>481</v>
       </c>
-      <c r="B482" s="196"/>
+      <c r="B482" s="207"/>
       <c r="C482" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D482" s="52">
         <v>2</v>
@@ -58400,9 +58400,9 @@
       <c r="A483">
         <v>482</v>
       </c>
-      <c r="B483" s="196"/>
+      <c r="B483" s="207"/>
       <c r="C483" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D483" s="55">
         <v>2</v>
@@ -58517,9 +58517,9 @@
       <c r="A484">
         <v>483</v>
       </c>
-      <c r="B484" s="196"/>
+      <c r="B484" s="207"/>
       <c r="C484" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D484" s="49">
         <v>3</v>
@@ -58634,9 +58634,9 @@
       <c r="A485">
         <v>484</v>
       </c>
-      <c r="B485" s="196"/>
+      <c r="B485" s="207"/>
       <c r="C485" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D485" s="52">
         <v>3</v>
@@ -58751,9 +58751,9 @@
       <c r="A486">
         <v>485</v>
       </c>
-      <c r="B486" s="196"/>
+      <c r="B486" s="207"/>
       <c r="C486" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D486" s="52">
         <v>3</v>
@@ -58868,9 +58868,9 @@
       <c r="A487">
         <v>486</v>
       </c>
-      <c r="B487" s="196"/>
+      <c r="B487" s="207"/>
       <c r="C487" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D487" s="52">
         <v>3</v>
@@ -58985,9 +58985,9 @@
       <c r="A488">
         <v>487</v>
       </c>
-      <c r="B488" s="196"/>
+      <c r="B488" s="207"/>
       <c r="C488" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D488" s="52">
         <v>3</v>
@@ -59102,9 +59102,9 @@
       <c r="A489">
         <v>488</v>
       </c>
-      <c r="B489" s="196"/>
+      <c r="B489" s="207"/>
       <c r="C489" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D489" s="55">
         <v>3</v>
@@ -59219,9 +59219,9 @@
       <c r="A490">
         <v>489</v>
       </c>
-      <c r="B490" s="196"/>
+      <c r="B490" s="207"/>
       <c r="C490" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D490" s="9">
         <v>4</v>
@@ -59336,9 +59336,9 @@
       <c r="A491">
         <v>490</v>
       </c>
-      <c r="B491" s="196"/>
+      <c r="B491" s="207"/>
       <c r="C491" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D491" s="9">
         <v>4</v>
@@ -59453,9 +59453,9 @@
       <c r="A492">
         <v>491</v>
       </c>
-      <c r="B492" s="196"/>
+      <c r="B492" s="207"/>
       <c r="C492" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D492" s="9">
         <v>4</v>
@@ -59570,9 +59570,9 @@
       <c r="A493">
         <v>492</v>
       </c>
-      <c r="B493" s="196"/>
+      <c r="B493" s="207"/>
       <c r="C493" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D493" s="9">
         <v>4</v>
@@ -59687,9 +59687,9 @@
       <c r="A494">
         <v>493</v>
       </c>
-      <c r="B494" s="196"/>
+      <c r="B494" s="207"/>
       <c r="C494" s="151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D494" s="9">
         <v>4</v>
@@ -59804,9 +59804,9 @@
       <c r="A495">
         <v>494</v>
       </c>
-      <c r="B495" s="197"/>
+      <c r="B495" s="208"/>
       <c r="C495" s="152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D495" s="59">
         <v>4</v>
@@ -59921,11 +59921,11 @@
       <c r="A496">
         <v>495</v>
       </c>
-      <c r="B496" s="198">
+      <c r="B496" s="209">
         <v>21</v>
       </c>
       <c r="C496" s="153" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D496" s="61">
         <v>1</v>
@@ -60040,9 +60040,9 @@
       <c r="A497">
         <v>496</v>
       </c>
-      <c r="B497" s="199"/>
+      <c r="B497" s="210"/>
       <c r="C497" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D497" s="9">
         <v>2</v>
@@ -60157,9 +60157,9 @@
       <c r="A498">
         <v>497</v>
       </c>
-      <c r="B498" s="199"/>
+      <c r="B498" s="210"/>
       <c r="C498" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D498" s="9">
         <v>3</v>
@@ -60274,9 +60274,9 @@
       <c r="A499">
         <v>498</v>
       </c>
-      <c r="B499" s="199"/>
+      <c r="B499" s="210"/>
       <c r="C499" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D499" s="9">
         <v>4</v>
@@ -60391,9 +60391,9 @@
       <c r="A500">
         <v>499</v>
       </c>
-      <c r="B500" s="199"/>
+      <c r="B500" s="210"/>
       <c r="C500" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D500" s="9">
         <v>5</v>
@@ -60508,9 +60508,9 @@
       <c r="A501">
         <v>500</v>
       </c>
-      <c r="B501" s="199"/>
+      <c r="B501" s="210"/>
       <c r="C501" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D501" s="9">
         <v>6</v>
@@ -60625,9 +60625,9 @@
       <c r="A502">
         <v>501</v>
       </c>
-      <c r="B502" s="199"/>
+      <c r="B502" s="210"/>
       <c r="C502" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D502" s="9">
         <v>7</v>
@@ -60742,9 +60742,9 @@
       <c r="A503">
         <v>502</v>
       </c>
-      <c r="B503" s="199"/>
+      <c r="B503" s="210"/>
       <c r="C503" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D503" s="9">
         <v>8</v>
@@ -60859,9 +60859,9 @@
       <c r="A504">
         <v>503</v>
       </c>
-      <c r="B504" s="199"/>
+      <c r="B504" s="210"/>
       <c r="C504" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D504" s="9">
         <v>9</v>
@@ -60976,9 +60976,9 @@
       <c r="A505">
         <v>504</v>
       </c>
-      <c r="B505" s="199"/>
+      <c r="B505" s="210"/>
       <c r="C505" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D505" s="9">
         <v>10</v>
@@ -61093,9 +61093,9 @@
       <c r="A506">
         <v>505</v>
       </c>
-      <c r="B506" s="199"/>
+      <c r="B506" s="210"/>
       <c r="C506" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D506" s="9">
         <v>11</v>
@@ -61210,9 +61210,9 @@
       <c r="A507">
         <v>506</v>
       </c>
-      <c r="B507" s="199"/>
+      <c r="B507" s="210"/>
       <c r="C507" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D507" s="9">
         <v>12</v>
@@ -61327,9 +61327,9 @@
       <c r="A508">
         <v>507</v>
       </c>
-      <c r="B508" s="199"/>
+      <c r="B508" s="210"/>
       <c r="C508" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D508" s="9">
         <v>13</v>
@@ -61444,9 +61444,9 @@
       <c r="A509">
         <v>508</v>
       </c>
-      <c r="B509" s="199"/>
+      <c r="B509" s="210"/>
       <c r="C509" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D509" s="9">
         <v>14</v>
@@ -61561,9 +61561,9 @@
       <c r="A510">
         <v>509</v>
       </c>
-      <c r="B510" s="199"/>
+      <c r="B510" s="210"/>
       <c r="C510" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D510" s="9">
         <v>15</v>
@@ -61678,9 +61678,9 @@
       <c r="A511">
         <v>510</v>
       </c>
-      <c r="B511" s="199"/>
+      <c r="B511" s="210"/>
       <c r="C511" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D511" s="9">
         <v>16</v>
@@ -61795,9 +61795,9 @@
       <c r="A512">
         <v>511</v>
       </c>
-      <c r="B512" s="199"/>
+      <c r="B512" s="210"/>
       <c r="C512" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D512" s="9">
         <v>17</v>
@@ -61912,9 +61912,9 @@
       <c r="A513">
         <v>512</v>
       </c>
-      <c r="B513" s="199"/>
+      <c r="B513" s="210"/>
       <c r="C513" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D513" s="9">
         <v>18</v>
@@ -62029,9 +62029,9 @@
       <c r="A514">
         <v>513</v>
       </c>
-      <c r="B514" s="199"/>
+      <c r="B514" s="210"/>
       <c r="C514" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D514" s="9">
         <v>19</v>
@@ -62146,9 +62146,9 @@
       <c r="A515">
         <v>514</v>
       </c>
-      <c r="B515" s="199"/>
+      <c r="B515" s="210"/>
       <c r="C515" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D515" s="9">
         <v>20</v>
@@ -62263,9 +62263,9 @@
       <c r="A516">
         <v>515</v>
       </c>
-      <c r="B516" s="200"/>
+      <c r="B516" s="211"/>
       <c r="C516" s="155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D516" s="59">
         <v>21</v>
@@ -62380,11 +62380,11 @@
       <c r="A517">
         <v>516</v>
       </c>
-      <c r="B517" s="191">
+      <c r="B517" s="192">
         <v>22</v>
       </c>
       <c r="C517" s="131" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D517" s="65">
         <v>1</v>
@@ -62499,9 +62499,9 @@
       <c r="A518">
         <v>517</v>
       </c>
-      <c r="B518" s="192"/>
+      <c r="B518" s="193"/>
       <c r="C518" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D518" s="67">
         <v>1</v>
@@ -62616,9 +62616,9 @@
       <c r="A519">
         <v>518</v>
       </c>
-      <c r="B519" s="192"/>
+      <c r="B519" s="193"/>
       <c r="C519" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D519" s="67">
         <v>1</v>
@@ -62733,9 +62733,9 @@
       <c r="A520">
         <v>519</v>
       </c>
-      <c r="B520" s="192"/>
+      <c r="B520" s="193"/>
       <c r="C520" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D520" s="67">
         <v>1</v>
@@ -62850,9 +62850,9 @@
       <c r="A521">
         <v>520</v>
       </c>
-      <c r="B521" s="192"/>
+      <c r="B521" s="193"/>
       <c r="C521" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D521" s="67">
         <v>1</v>
@@ -62967,9 +62967,9 @@
       <c r="A522">
         <v>521</v>
       </c>
-      <c r="B522" s="192"/>
+      <c r="B522" s="193"/>
       <c r="C522" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D522" s="67">
         <v>1</v>
@@ -63084,9 +63084,9 @@
       <c r="A523">
         <v>522</v>
       </c>
-      <c r="B523" s="192"/>
+      <c r="B523" s="193"/>
       <c r="C523" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D523" s="67">
         <v>1</v>
@@ -63201,9 +63201,9 @@
       <c r="A524">
         <v>523</v>
       </c>
-      <c r="B524" s="192"/>
+      <c r="B524" s="193"/>
       <c r="C524" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D524" s="68">
         <v>1</v>
@@ -63318,9 +63318,9 @@
       <c r="A525">
         <v>524</v>
       </c>
-      <c r="B525" s="192"/>
+      <c r="B525" s="193"/>
       <c r="C525" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D525" s="67">
         <v>1</v>
@@ -63435,9 +63435,9 @@
       <c r="A526">
         <v>525</v>
       </c>
-      <c r="B526" s="192"/>
+      <c r="B526" s="193"/>
       <c r="C526" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D526" s="67">
         <v>1</v>
@@ -63552,9 +63552,9 @@
       <c r="A527">
         <v>526</v>
       </c>
-      <c r="B527" s="192"/>
+      <c r="B527" s="193"/>
       <c r="C527" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D527" s="67">
         <v>1</v>
@@ -63669,9 +63669,9 @@
       <c r="A528">
         <v>527</v>
       </c>
-      <c r="B528" s="192"/>
+      <c r="B528" s="193"/>
       <c r="C528" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D528" s="67">
         <v>1</v>
@@ -63786,9 +63786,9 @@
       <c r="A529">
         <v>528</v>
       </c>
-      <c r="B529" s="192"/>
+      <c r="B529" s="193"/>
       <c r="C529" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D529" s="67">
         <v>1</v>
@@ -63903,11 +63903,11 @@
       <c r="A530">
         <v>529</v>
       </c>
-      <c r="B530" s="204">
+      <c r="B530" s="188">
         <v>23</v>
       </c>
       <c r="C530" s="133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D530" s="71">
         <v>1</v>
@@ -64022,9 +64022,9 @@
       <c r="A531">
         <v>530</v>
       </c>
-      <c r="B531" s="205"/>
+      <c r="B531" s="189"/>
       <c r="C531" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D531" s="58">
         <v>1</v>
@@ -64139,9 +64139,9 @@
       <c r="A532">
         <v>531</v>
       </c>
-      <c r="B532" s="205"/>
+      <c r="B532" s="189"/>
       <c r="C532" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D532" s="58">
         <v>1</v>
@@ -64256,9 +64256,9 @@
       <c r="A533">
         <v>532</v>
       </c>
-      <c r="B533" s="205"/>
+      <c r="B533" s="189"/>
       <c r="C533" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D533" s="58">
         <v>1</v>
@@ -64373,9 +64373,9 @@
       <c r="A534">
         <v>533</v>
       </c>
-      <c r="B534" s="205"/>
+      <c r="B534" s="189"/>
       <c r="C534" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D534" s="58">
         <v>1</v>
@@ -64490,9 +64490,9 @@
       <c r="A535">
         <v>534</v>
       </c>
-      <c r="B535" s="205"/>
+      <c r="B535" s="189"/>
       <c r="C535" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D535" s="58">
         <v>2</v>
@@ -64607,9 +64607,9 @@
       <c r="A536">
         <v>535</v>
       </c>
-      <c r="B536" s="205"/>
+      <c r="B536" s="189"/>
       <c r="C536" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D536" s="58">
         <v>2</v>
@@ -64724,9 +64724,9 @@
       <c r="A537">
         <v>536</v>
       </c>
-      <c r="B537" s="205"/>
+      <c r="B537" s="189"/>
       <c r="C537" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D537" s="58">
         <v>2</v>
@@ -64841,9 +64841,9 @@
       <c r="A538">
         <v>537</v>
       </c>
-      <c r="B538" s="205"/>
+      <c r="B538" s="189"/>
       <c r="C538" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D538" s="58">
         <v>2</v>
@@ -64958,9 +64958,9 @@
       <c r="A539">
         <v>538</v>
       </c>
-      <c r="B539" s="205"/>
+      <c r="B539" s="189"/>
       <c r="C539" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D539" s="58">
         <v>2</v>
@@ -65075,9 +65075,9 @@
       <c r="A540">
         <v>539</v>
       </c>
-      <c r="B540" s="205"/>
+      <c r="B540" s="189"/>
       <c r="C540" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D540" s="58">
         <v>3</v>
@@ -65192,9 +65192,9 @@
       <c r="A541">
         <v>540</v>
       </c>
-      <c r="B541" s="205"/>
+      <c r="B541" s="189"/>
       <c r="C541" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D541" s="58">
         <v>3</v>
@@ -65309,9 +65309,9 @@
       <c r="A542">
         <v>541</v>
       </c>
-      <c r="B542" s="205"/>
+      <c r="B542" s="189"/>
       <c r="C542" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D542" s="58">
         <v>3</v>
@@ -65426,9 +65426,9 @@
       <c r="A543">
         <v>542</v>
       </c>
-      <c r="B543" s="205"/>
+      <c r="B543" s="189"/>
       <c r="C543" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D543" s="58">
         <v>3</v>
@@ -65543,9 +65543,9 @@
       <c r="A544">
         <v>543</v>
       </c>
-      <c r="B544" s="205"/>
+      <c r="B544" s="189"/>
       <c r="C544" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D544" s="58">
         <v>4</v>
@@ -65660,9 +65660,9 @@
       <c r="A545">
         <v>544</v>
       </c>
-      <c r="B545" s="205"/>
+      <c r="B545" s="189"/>
       <c r="C545" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D545" s="58">
         <v>4</v>
@@ -65777,9 +65777,9 @@
       <c r="A546">
         <v>545</v>
       </c>
-      <c r="B546" s="205"/>
+      <c r="B546" s="189"/>
       <c r="C546" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D546" s="58">
         <v>4</v>
@@ -65894,9 +65894,9 @@
       <c r="A547">
         <v>546</v>
       </c>
-      <c r="B547" s="205"/>
+      <c r="B547" s="189"/>
       <c r="C547" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D547" s="58">
         <v>4</v>
@@ -66011,9 +66011,9 @@
       <c r="A548">
         <v>547</v>
       </c>
-      <c r="B548" s="205"/>
+      <c r="B548" s="189"/>
       <c r="C548" s="134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D548" s="58">
         <v>4</v>
@@ -66128,11 +66128,11 @@
       <c r="A549">
         <v>548</v>
       </c>
-      <c r="B549" s="206">
+      <c r="B549" s="190">
         <v>24</v>
       </c>
       <c r="C549" s="135" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D549" s="61">
         <v>1</v>
@@ -66247,9 +66247,9 @@
       <c r="A550">
         <v>549</v>
       </c>
-      <c r="B550" s="202"/>
+      <c r="B550" s="186"/>
       <c r="C550" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D550" s="9">
         <v>2</v>
@@ -66364,9 +66364,9 @@
       <c r="A551">
         <v>550</v>
       </c>
-      <c r="B551" s="202"/>
+      <c r="B551" s="186"/>
       <c r="C551" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D551" s="9">
         <v>3</v>
@@ -66481,9 +66481,9 @@
       <c r="A552">
         <v>551</v>
       </c>
-      <c r="B552" s="202"/>
+      <c r="B552" s="186"/>
       <c r="C552" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D552" s="9">
         <v>4</v>
@@ -66598,9 +66598,9 @@
       <c r="A553">
         <v>552</v>
       </c>
-      <c r="B553" s="202"/>
+      <c r="B553" s="186"/>
       <c r="C553" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D553" s="9">
         <v>5</v>
@@ -66715,9 +66715,9 @@
       <c r="A554">
         <v>553</v>
       </c>
-      <c r="B554" s="202"/>
+      <c r="B554" s="186"/>
       <c r="C554" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D554" s="9">
         <v>6</v>
@@ -66832,9 +66832,9 @@
       <c r="A555">
         <v>554</v>
       </c>
-      <c r="B555" s="202"/>
+      <c r="B555" s="186"/>
       <c r="C555" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D555" s="9">
         <v>7</v>
@@ -66949,9 +66949,9 @@
       <c r="A556">
         <v>555</v>
       </c>
-      <c r="B556" s="202"/>
+      <c r="B556" s="186"/>
       <c r="C556" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D556" s="9">
         <v>8</v>
@@ -67066,9 +67066,9 @@
       <c r="A557">
         <v>556</v>
       </c>
-      <c r="B557" s="202"/>
+      <c r="B557" s="186"/>
       <c r="C557" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D557" s="9">
         <v>9</v>
@@ -67183,9 +67183,9 @@
       <c r="A558">
         <v>557</v>
       </c>
-      <c r="B558" s="202"/>
+      <c r="B558" s="186"/>
       <c r="C558" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D558" s="9">
         <v>10</v>
@@ -67300,9 +67300,9 @@
       <c r="A559">
         <v>558</v>
       </c>
-      <c r="B559" s="202"/>
+      <c r="B559" s="186"/>
       <c r="C559" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D559" s="9">
         <v>11</v>
@@ -67417,9 +67417,9 @@
       <c r="A560">
         <v>559</v>
       </c>
-      <c r="B560" s="202"/>
+      <c r="B560" s="186"/>
       <c r="C560" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D560" s="9">
         <v>12</v>
@@ -67534,9 +67534,9 @@
       <c r="A561">
         <v>560</v>
       </c>
-      <c r="B561" s="202"/>
+      <c r="B561" s="186"/>
       <c r="C561" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D561" s="9">
         <v>13</v>
@@ -67651,9 +67651,9 @@
       <c r="A562">
         <v>561</v>
       </c>
-      <c r="B562" s="202"/>
+      <c r="B562" s="186"/>
       <c r="C562" s="136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D562" s="9">
         <v>14</v>
@@ -67768,9 +67768,9 @@
       <c r="A563">
         <v>562</v>
       </c>
-      <c r="B563" s="207"/>
+      <c r="B563" s="191"/>
       <c r="C563" s="137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D563" s="59">
         <v>15</v>
@@ -67889,7 +67889,7 @@
         <v>25</v>
       </c>
       <c r="C564" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D564" s="76">
         <v>1</v>
@@ -68004,11 +68004,11 @@
       <c r="A565">
         <v>564</v>
       </c>
-      <c r="B565" s="191">
+      <c r="B565" s="192">
         <v>26</v>
       </c>
       <c r="C565" s="133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D565" s="65">
         <v>1</v>
@@ -68123,9 +68123,9 @@
       <c r="A566">
         <v>565</v>
       </c>
-      <c r="B566" s="192"/>
+      <c r="B566" s="193"/>
       <c r="C566" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D566" s="67">
         <v>1</v>
@@ -68240,9 +68240,9 @@
       <c r="A567">
         <v>566</v>
       </c>
-      <c r="B567" s="192"/>
+      <c r="B567" s="193"/>
       <c r="C567" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D567" s="67">
         <v>1</v>
@@ -68357,9 +68357,9 @@
       <c r="A568">
         <v>567</v>
       </c>
-      <c r="B568" s="192"/>
+      <c r="B568" s="193"/>
       <c r="C568" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D568" s="67">
         <v>1</v>
@@ -68474,9 +68474,9 @@
       <c r="A569">
         <v>568</v>
       </c>
-      <c r="B569" s="192"/>
+      <c r="B569" s="193"/>
       <c r="C569" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D569" s="67">
         <v>1</v>
@@ -68591,9 +68591,9 @@
       <c r="A570">
         <v>569</v>
       </c>
-      <c r="B570" s="192"/>
+      <c r="B570" s="193"/>
       <c r="C570" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D570" s="67">
         <v>1</v>
@@ -68708,9 +68708,9 @@
       <c r="A571">
         <v>570</v>
       </c>
-      <c r="B571" s="192"/>
+      <c r="B571" s="193"/>
       <c r="C571" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D571" s="67">
         <v>1</v>
@@ -68825,9 +68825,9 @@
       <c r="A572">
         <v>571</v>
       </c>
-      <c r="B572" s="192"/>
+      <c r="B572" s="193"/>
       <c r="C572" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D572" s="67">
         <v>1</v>
@@ -68942,9 +68942,9 @@
       <c r="A573">
         <v>572</v>
       </c>
-      <c r="B573" s="192"/>
+      <c r="B573" s="193"/>
       <c r="C573" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D573" s="67">
         <v>1</v>
@@ -69059,9 +69059,9 @@
       <c r="A574">
         <v>573</v>
       </c>
-      <c r="B574" s="192"/>
+      <c r="B574" s="193"/>
       <c r="C574" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D574" s="67">
         <v>1</v>
@@ -69176,9 +69176,9 @@
       <c r="A575">
         <v>574</v>
       </c>
-      <c r="B575" s="192"/>
+      <c r="B575" s="193"/>
       <c r="C575" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D575" s="67">
         <v>1</v>
@@ -69293,9 +69293,9 @@
       <c r="A576">
         <v>575</v>
       </c>
-      <c r="B576" s="192"/>
+      <c r="B576" s="193"/>
       <c r="C576" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D576" s="67">
         <v>1</v>
@@ -69410,9 +69410,9 @@
       <c r="A577">
         <v>576</v>
       </c>
-      <c r="B577" s="192"/>
+      <c r="B577" s="193"/>
       <c r="C577" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D577" s="67">
         <v>1</v>
@@ -69527,9 +69527,9 @@
       <c r="A578">
         <v>577</v>
       </c>
-      <c r="B578" s="192"/>
+      <c r="B578" s="193"/>
       <c r="C578" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D578" s="67">
         <v>1</v>
@@ -69644,9 +69644,9 @@
       <c r="A579">
         <v>578</v>
       </c>
-      <c r="B579" s="192"/>
+      <c r="B579" s="193"/>
       <c r="C579" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D579" s="67">
         <v>1</v>
@@ -69761,9 +69761,9 @@
       <c r="A580">
         <v>579</v>
       </c>
-      <c r="B580" s="192"/>
+      <c r="B580" s="193"/>
       <c r="C580" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D580" s="67">
         <v>1</v>
@@ -69878,9 +69878,9 @@
       <c r="A581">
         <v>580</v>
       </c>
-      <c r="B581" s="192"/>
+      <c r="B581" s="193"/>
       <c r="C581" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D581" s="67">
         <v>1</v>
@@ -69995,9 +69995,9 @@
       <c r="A582">
         <v>581</v>
       </c>
-      <c r="B582" s="192"/>
+      <c r="B582" s="193"/>
       <c r="C582" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D582" s="67">
         <v>1</v>
@@ -70112,9 +70112,9 @@
       <c r="A583">
         <v>582</v>
       </c>
-      <c r="B583" s="192"/>
+      <c r="B583" s="193"/>
       <c r="C583" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D583" s="67">
         <v>1</v>
@@ -70229,9 +70229,9 @@
       <c r="A584">
         <v>583</v>
       </c>
-      <c r="B584" s="192"/>
+      <c r="B584" s="193"/>
       <c r="C584" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D584" s="67">
         <v>1</v>
@@ -70346,9 +70346,9 @@
       <c r="A585">
         <v>584</v>
       </c>
-      <c r="B585" s="192"/>
+      <c r="B585" s="193"/>
       <c r="C585" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D585" s="81">
         <v>1</v>
@@ -70463,9 +70463,9 @@
       <c r="A586">
         <v>585</v>
       </c>
-      <c r="B586" s="192"/>
+      <c r="B586" s="193"/>
       <c r="C586" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D586" s="9">
         <v>2</v>
@@ -70580,9 +70580,9 @@
       <c r="A587">
         <v>586</v>
       </c>
-      <c r="B587" s="192"/>
+      <c r="B587" s="193"/>
       <c r="C587" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D587" s="9">
         <v>2</v>
@@ -70697,9 +70697,9 @@
       <c r="A588">
         <v>587</v>
       </c>
-      <c r="B588" s="192"/>
+      <c r="B588" s="193"/>
       <c r="C588" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D588" s="9">
         <v>2</v>
@@ -70814,9 +70814,9 @@
       <c r="A589">
         <v>588</v>
       </c>
-      <c r="B589" s="192"/>
+      <c r="B589" s="193"/>
       <c r="C589" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D589" s="9">
         <v>2</v>
@@ -70931,9 +70931,9 @@
       <c r="A590">
         <v>589</v>
       </c>
-      <c r="B590" s="192"/>
+      <c r="B590" s="193"/>
       <c r="C590" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D590" s="9">
         <v>2</v>
@@ -71048,9 +71048,9 @@
       <c r="A591">
         <v>590</v>
       </c>
-      <c r="B591" s="192"/>
+      <c r="B591" s="193"/>
       <c r="C591" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D591" s="9">
         <v>2</v>
@@ -71165,9 +71165,9 @@
       <c r="A592">
         <v>591</v>
       </c>
-      <c r="B592" s="192"/>
+      <c r="B592" s="193"/>
       <c r="C592" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D592" s="9">
         <v>2</v>
@@ -71282,9 +71282,9 @@
       <c r="A593">
         <v>592</v>
       </c>
-      <c r="B593" s="192"/>
+      <c r="B593" s="193"/>
       <c r="C593" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D593" s="9">
         <v>2</v>
@@ -71399,9 +71399,9 @@
       <c r="A594">
         <v>593</v>
       </c>
-      <c r="B594" s="192"/>
+      <c r="B594" s="193"/>
       <c r="C594" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D594" s="9">
         <v>2</v>
@@ -71516,9 +71516,9 @@
       <c r="A595">
         <v>594</v>
       </c>
-      <c r="B595" s="192"/>
+      <c r="B595" s="193"/>
       <c r="C595" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D595" s="9">
         <v>2</v>
@@ -71633,9 +71633,9 @@
       <c r="A596">
         <v>595</v>
       </c>
-      <c r="B596" s="192"/>
+      <c r="B596" s="193"/>
       <c r="C596" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D596" s="9">
         <v>2</v>
@@ -71750,9 +71750,9 @@
       <c r="A597">
         <v>596</v>
       </c>
-      <c r="B597" s="192"/>
+      <c r="B597" s="193"/>
       <c r="C597" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D597" s="9">
         <v>2</v>
@@ -71867,9 +71867,9 @@
       <c r="A598">
         <v>597</v>
       </c>
-      <c r="B598" s="192"/>
+      <c r="B598" s="193"/>
       <c r="C598" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D598" s="9">
         <v>2</v>
@@ -71984,9 +71984,9 @@
       <c r="A599">
         <v>598</v>
       </c>
-      <c r="B599" s="192"/>
+      <c r="B599" s="193"/>
       <c r="C599" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D599" s="9">
         <v>2</v>
@@ -72101,9 +72101,9 @@
       <c r="A600">
         <v>599</v>
       </c>
-      <c r="B600" s="192"/>
+      <c r="B600" s="193"/>
       <c r="C600" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D600" s="9">
         <v>2</v>
@@ -72218,9 +72218,9 @@
       <c r="A601">
         <v>600</v>
       </c>
-      <c r="B601" s="192"/>
+      <c r="B601" s="193"/>
       <c r="C601" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D601" s="9">
         <v>2</v>
@@ -72335,9 +72335,9 @@
       <c r="A602">
         <v>601</v>
       </c>
-      <c r="B602" s="192"/>
+      <c r="B602" s="193"/>
       <c r="C602" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D602" s="9">
         <v>2</v>
@@ -72452,9 +72452,9 @@
       <c r="A603">
         <v>602</v>
       </c>
-      <c r="B603" s="192"/>
+      <c r="B603" s="193"/>
       <c r="C603" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D603" s="9">
         <v>2</v>
@@ -72569,9 +72569,9 @@
       <c r="A604">
         <v>603</v>
       </c>
-      <c r="B604" s="192"/>
+      <c r="B604" s="193"/>
       <c r="C604" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D604" s="9">
         <v>2</v>
@@ -72686,9 +72686,9 @@
       <c r="A605">
         <v>604</v>
       </c>
-      <c r="B605" s="192"/>
+      <c r="B605" s="193"/>
       <c r="C605" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D605" s="9">
         <v>2</v>
@@ -72803,9 +72803,9 @@
       <c r="A606">
         <v>605</v>
       </c>
-      <c r="B606" s="192"/>
+      <c r="B606" s="193"/>
       <c r="C606" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D606" s="9">
         <v>2</v>
@@ -72920,9 +72920,9 @@
       <c r="A607">
         <v>606</v>
       </c>
-      <c r="B607" s="192"/>
+      <c r="B607" s="193"/>
       <c r="C607" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D607" s="9">
         <v>2</v>
@@ -73037,9 +73037,9 @@
       <c r="A608">
         <v>607</v>
       </c>
-      <c r="B608" s="192"/>
+      <c r="B608" s="193"/>
       <c r="C608" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D608" s="65">
         <v>3</v>
@@ -73154,9 +73154,9 @@
       <c r="A609">
         <v>608</v>
       </c>
-      <c r="B609" s="192"/>
+      <c r="B609" s="193"/>
       <c r="C609" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D609" s="67">
         <v>3</v>
@@ -73271,9 +73271,9 @@
       <c r="A610">
         <v>609</v>
       </c>
-      <c r="B610" s="192"/>
+      <c r="B610" s="193"/>
       <c r="C610" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D610" s="67">
         <v>3</v>
@@ -73388,9 +73388,9 @@
       <c r="A611">
         <v>610</v>
       </c>
-      <c r="B611" s="192"/>
+      <c r="B611" s="193"/>
       <c r="C611" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D611" s="67">
         <v>3</v>
@@ -73505,9 +73505,9 @@
       <c r="A612">
         <v>611</v>
       </c>
-      <c r="B612" s="192"/>
+      <c r="B612" s="193"/>
       <c r="C612" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D612" s="67">
         <v>3</v>
@@ -73622,9 +73622,9 @@
       <c r="A613">
         <v>612</v>
       </c>
-      <c r="B613" s="192"/>
+      <c r="B613" s="193"/>
       <c r="C613" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D613" s="81">
         <v>3</v>
@@ -73739,9 +73739,9 @@
       <c r="A614">
         <v>613</v>
       </c>
-      <c r="B614" s="192"/>
+      <c r="B614" s="193"/>
       <c r="C614" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D614" s="9">
         <v>4</v>
@@ -73856,9 +73856,9 @@
       <c r="A615">
         <v>614</v>
       </c>
-      <c r="B615" s="192"/>
+      <c r="B615" s="193"/>
       <c r="C615" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D615" s="9">
         <v>4</v>
@@ -73973,9 +73973,9 @@
       <c r="A616">
         <v>615</v>
       </c>
-      <c r="B616" s="192"/>
+      <c r="B616" s="193"/>
       <c r="C616" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D616" s="9">
         <v>4</v>
@@ -74090,9 +74090,9 @@
       <c r="A617">
         <v>616</v>
       </c>
-      <c r="B617" s="192"/>
+      <c r="B617" s="193"/>
       <c r="C617" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D617" s="9">
         <v>4</v>
@@ -74207,9 +74207,9 @@
       <c r="A618">
         <v>617</v>
       </c>
-      <c r="B618" s="192"/>
+      <c r="B618" s="193"/>
       <c r="C618" s="134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D618" s="9">
         <v>4</v>
@@ -74324,9 +74324,9 @@
       <c r="A619">
         <v>618</v>
       </c>
-      <c r="B619" s="208"/>
+      <c r="B619" s="194"/>
       <c r="C619" s="138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D619" s="59">
         <v>4</v>
@@ -74441,11 +74441,11 @@
       <c r="A620">
         <v>619</v>
       </c>
-      <c r="B620" s="209">
+      <c r="B620" s="195">
         <v>27</v>
       </c>
       <c r="C620" s="139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D620" s="83">
         <v>1</v>
@@ -74560,9 +74560,9 @@
       <c r="A621">
         <v>620</v>
       </c>
-      <c r="B621" s="210"/>
+      <c r="B621" s="196"/>
       <c r="C621" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D621" s="86">
         <v>1</v>
@@ -74677,9 +74677,9 @@
       <c r="A622">
         <v>621</v>
       </c>
-      <c r="B622" s="210"/>
+      <c r="B622" s="196"/>
       <c r="C622" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D622" s="86">
         <v>1</v>
@@ -74794,9 +74794,9 @@
       <c r="A623">
         <v>622</v>
       </c>
-      <c r="B623" s="210"/>
+      <c r="B623" s="196"/>
       <c r="C623" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D623" s="86">
         <v>1</v>
@@ -74911,9 +74911,9 @@
       <c r="A624">
         <v>623</v>
       </c>
-      <c r="B624" s="210"/>
+      <c r="B624" s="196"/>
       <c r="C624" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D624" s="86">
         <v>1</v>
@@ -75028,9 +75028,9 @@
       <c r="A625">
         <v>624</v>
       </c>
-      <c r="B625" s="210"/>
+      <c r="B625" s="196"/>
       <c r="C625" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D625" s="86">
         <v>1</v>
@@ -75145,9 +75145,9 @@
       <c r="A626">
         <v>625</v>
       </c>
-      <c r="B626" s="210"/>
+      <c r="B626" s="196"/>
       <c r="C626" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D626" s="86">
         <v>1</v>
@@ -75262,9 +75262,9 @@
       <c r="A627">
         <v>626</v>
       </c>
-      <c r="B627" s="210"/>
+      <c r="B627" s="196"/>
       <c r="C627" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D627" s="86">
         <v>1</v>
@@ -75379,9 +75379,9 @@
       <c r="A628">
         <v>627</v>
       </c>
-      <c r="B628" s="210"/>
+      <c r="B628" s="196"/>
       <c r="C628" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D628" s="86">
         <v>1</v>
@@ -75496,9 +75496,9 @@
       <c r="A629">
         <v>628</v>
       </c>
-      <c r="B629" s="210"/>
+      <c r="B629" s="196"/>
       <c r="C629" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D629" s="92">
         <v>2</v>
@@ -75613,9 +75613,9 @@
       <c r="A630">
         <v>629</v>
       </c>
-      <c r="B630" s="210"/>
+      <c r="B630" s="196"/>
       <c r="C630" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D630" s="93">
         <v>2</v>
@@ -75730,9 +75730,9 @@
       <c r="A631">
         <v>630</v>
       </c>
-      <c r="B631" s="210"/>
+      <c r="B631" s="196"/>
       <c r="C631" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D631" s="93">
         <v>2</v>
@@ -75847,9 +75847,9 @@
       <c r="A632">
         <v>631</v>
       </c>
-      <c r="B632" s="210"/>
+      <c r="B632" s="196"/>
       <c r="C632" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D632" s="93">
         <v>2</v>
@@ -75964,9 +75964,9 @@
       <c r="A633">
         <v>632</v>
       </c>
-      <c r="B633" s="210"/>
+      <c r="B633" s="196"/>
       <c r="C633" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D633" s="93">
         <v>2</v>
@@ -76081,9 +76081,9 @@
       <c r="A634">
         <v>633</v>
       </c>
-      <c r="B634" s="210"/>
+      <c r="B634" s="196"/>
       <c r="C634" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D634" s="93">
         <v>2</v>
@@ -76198,9 +76198,9 @@
       <c r="A635">
         <v>634</v>
       </c>
-      <c r="B635" s="210"/>
+      <c r="B635" s="196"/>
       <c r="C635" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D635" s="93">
         <v>2</v>
@@ -76315,9 +76315,9 @@
       <c r="A636">
         <v>635</v>
       </c>
-      <c r="B636" s="210"/>
+      <c r="B636" s="196"/>
       <c r="C636" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D636" s="93">
         <v>2</v>
@@ -76432,9 +76432,9 @@
       <c r="A637">
         <v>636</v>
       </c>
-      <c r="B637" s="210"/>
+      <c r="B637" s="196"/>
       <c r="C637" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D637" s="94">
         <v>2</v>
@@ -76549,9 +76549,9 @@
       <c r="A638">
         <v>637</v>
       </c>
-      <c r="B638" s="210"/>
+      <c r="B638" s="196"/>
       <c r="C638" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D638" s="93">
         <v>3</v>
@@ -76666,9 +76666,9 @@
       <c r="A639">
         <v>638</v>
       </c>
-      <c r="B639" s="210"/>
+      <c r="B639" s="196"/>
       <c r="C639" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D639" s="93">
         <v>3</v>
@@ -76783,9 +76783,9 @@
       <c r="A640">
         <v>639</v>
       </c>
-      <c r="B640" s="210"/>
+      <c r="B640" s="196"/>
       <c r="C640" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D640" s="93">
         <v>3</v>
@@ -76900,9 +76900,9 @@
       <c r="A641">
         <v>640</v>
       </c>
-      <c r="B641" s="210"/>
+      <c r="B641" s="196"/>
       <c r="C641" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D641" s="93">
         <v>3</v>
@@ -77017,9 +77017,9 @@
       <c r="A642">
         <v>641</v>
       </c>
-      <c r="B642" s="210"/>
+      <c r="B642" s="196"/>
       <c r="C642" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D642" s="93">
         <v>3</v>
@@ -77134,9 +77134,9 @@
       <c r="A643">
         <v>642</v>
       </c>
-      <c r="B643" s="210"/>
+      <c r="B643" s="196"/>
       <c r="C643" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D643" s="93">
         <v>3</v>
@@ -77251,9 +77251,9 @@
       <c r="A644">
         <v>643</v>
       </c>
-      <c r="B644" s="210"/>
+      <c r="B644" s="196"/>
       <c r="C644" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D644" s="93">
         <v>3</v>
@@ -77368,9 +77368,9 @@
       <c r="A645">
         <v>644</v>
       </c>
-      <c r="B645" s="210"/>
+      <c r="B645" s="196"/>
       <c r="C645" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D645" s="93">
         <v>3</v>
@@ -77485,9 +77485,9 @@
       <c r="A646">
         <v>645</v>
       </c>
-      <c r="B646" s="210"/>
+      <c r="B646" s="196"/>
       <c r="C646" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D646" s="93">
         <v>3</v>
@@ -77602,9 +77602,9 @@
       <c r="A647">
         <v>646</v>
       </c>
-      <c r="B647" s="210"/>
+      <c r="B647" s="196"/>
       <c r="C647" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D647" s="95">
         <v>4</v>
@@ -77719,9 +77719,9 @@
       <c r="A648">
         <v>647</v>
       </c>
-      <c r="B648" s="210"/>
+      <c r="B648" s="196"/>
       <c r="C648" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D648" s="96">
         <v>4</v>
@@ -77836,9 +77836,9 @@
       <c r="A649">
         <v>648</v>
       </c>
-      <c r="B649" s="210"/>
+      <c r="B649" s="196"/>
       <c r="C649" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D649" s="96">
         <v>4</v>
@@ -77953,9 +77953,9 @@
       <c r="A650">
         <v>649</v>
       </c>
-      <c r="B650" s="210"/>
+      <c r="B650" s="196"/>
       <c r="C650" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D650" s="96">
         <v>4</v>
@@ -78070,9 +78070,9 @@
       <c r="A651">
         <v>650</v>
       </c>
-      <c r="B651" s="210"/>
+      <c r="B651" s="196"/>
       <c r="C651" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D651" s="96">
         <v>4</v>
@@ -78187,9 +78187,9 @@
       <c r="A652">
         <v>651</v>
       </c>
-      <c r="B652" s="210"/>
+      <c r="B652" s="196"/>
       <c r="C652" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D652" s="96">
         <v>4</v>
@@ -78304,9 +78304,9 @@
       <c r="A653">
         <v>652</v>
       </c>
-      <c r="B653" s="210"/>
+      <c r="B653" s="196"/>
       <c r="C653" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D653" s="96">
         <v>4</v>
@@ -78421,9 +78421,9 @@
       <c r="A654">
         <v>653</v>
       </c>
-      <c r="B654" s="210"/>
+      <c r="B654" s="196"/>
       <c r="C654" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D654" s="96">
         <v>4</v>
@@ -78538,9 +78538,9 @@
       <c r="A655">
         <v>654</v>
       </c>
-      <c r="B655" s="210"/>
+      <c r="B655" s="196"/>
       <c r="C655" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D655" s="97">
         <v>4</v>
@@ -78655,9 +78655,9 @@
       <c r="A656">
         <v>655</v>
       </c>
-      <c r="B656" s="210"/>
+      <c r="B656" s="196"/>
       <c r="C656" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D656" s="96">
         <v>5</v>
@@ -78772,9 +78772,9 @@
       <c r="A657">
         <v>656</v>
       </c>
-      <c r="B657" s="210"/>
+      <c r="B657" s="196"/>
       <c r="C657" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D657" s="96">
         <v>5</v>
@@ -78889,9 +78889,9 @@
       <c r="A658">
         <v>657</v>
       </c>
-      <c r="B658" s="210"/>
+      <c r="B658" s="196"/>
       <c r="C658" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D658" s="96">
         <v>5</v>
@@ -79006,9 +79006,9 @@
       <c r="A659">
         <v>658</v>
       </c>
-      <c r="B659" s="210"/>
+      <c r="B659" s="196"/>
       <c r="C659" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D659" s="96">
         <v>5</v>
@@ -79123,9 +79123,9 @@
       <c r="A660">
         <v>659</v>
       </c>
-      <c r="B660" s="210"/>
+      <c r="B660" s="196"/>
       <c r="C660" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D660" s="96">
         <v>5</v>
@@ -79240,9 +79240,9 @@
       <c r="A661">
         <v>660</v>
       </c>
-      <c r="B661" s="210"/>
+      <c r="B661" s="196"/>
       <c r="C661" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D661" s="96">
         <v>5</v>
@@ -79357,9 +79357,9 @@
       <c r="A662">
         <v>661</v>
       </c>
-      <c r="B662" s="210"/>
+      <c r="B662" s="196"/>
       <c r="C662" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D662" s="96">
         <v>5</v>
@@ -79474,9 +79474,9 @@
       <c r="A663">
         <v>662</v>
       </c>
-      <c r="B663" s="210"/>
+      <c r="B663" s="196"/>
       <c r="C663" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D663" s="96">
         <v>5</v>
@@ -79591,9 +79591,9 @@
       <c r="A664">
         <v>663</v>
       </c>
-      <c r="B664" s="210"/>
+      <c r="B664" s="196"/>
       <c r="C664" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D664" s="96">
         <v>5</v>
@@ -79708,9 +79708,9 @@
       <c r="A665">
         <v>664</v>
       </c>
-      <c r="B665" s="210"/>
+      <c r="B665" s="196"/>
       <c r="C665" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D665" s="95">
         <v>6</v>
@@ -79825,9 +79825,9 @@
       <c r="A666">
         <v>665</v>
       </c>
-      <c r="B666" s="210"/>
+      <c r="B666" s="196"/>
       <c r="C666" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D666" s="96">
         <v>6</v>
@@ -79942,9 +79942,9 @@
       <c r="A667">
         <v>666</v>
       </c>
-      <c r="B667" s="210"/>
+      <c r="B667" s="196"/>
       <c r="C667" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D667" s="96">
         <v>6</v>
@@ -80059,9 +80059,9 @@
       <c r="A668">
         <v>667</v>
       </c>
-      <c r="B668" s="210"/>
+      <c r="B668" s="196"/>
       <c r="C668" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D668" s="96">
         <v>6</v>
@@ -80176,9 +80176,9 @@
       <c r="A669">
         <v>668</v>
       </c>
-      <c r="B669" s="210"/>
+      <c r="B669" s="196"/>
       <c r="C669" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D669" s="96">
         <v>6</v>
@@ -80293,9 +80293,9 @@
       <c r="A670">
         <v>669</v>
       </c>
-      <c r="B670" s="210"/>
+      <c r="B670" s="196"/>
       <c r="C670" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D670" s="96">
         <v>6</v>
@@ -80410,9 +80410,9 @@
       <c r="A671">
         <v>670</v>
       </c>
-      <c r="B671" s="210"/>
+      <c r="B671" s="196"/>
       <c r="C671" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D671" s="96">
         <v>6</v>
@@ -80527,9 +80527,9 @@
       <c r="A672">
         <v>671</v>
       </c>
-      <c r="B672" s="210"/>
+      <c r="B672" s="196"/>
       <c r="C672" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D672" s="96">
         <v>6</v>
@@ -80644,9 +80644,9 @@
       <c r="A673">
         <v>672</v>
       </c>
-      <c r="B673" s="210"/>
+      <c r="B673" s="196"/>
       <c r="C673" s="140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D673" s="96">
         <v>6</v>
@@ -80761,11 +80761,11 @@
       <c r="A674">
         <v>673</v>
       </c>
-      <c r="B674" s="211">
+      <c r="B674" s="197">
         <v>28</v>
       </c>
       <c r="C674" s="126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D674" s="98">
         <v>1</v>
@@ -80880,9 +80880,9 @@
       <c r="A675">
         <v>674</v>
       </c>
-      <c r="B675" s="212"/>
+      <c r="B675" s="198"/>
       <c r="C675" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D675" s="100">
         <v>1</v>
@@ -80997,9 +80997,9 @@
       <c r="A676">
         <v>675</v>
       </c>
-      <c r="B676" s="212"/>
+      <c r="B676" s="198"/>
       <c r="C676" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D676" s="100">
         <v>1</v>
@@ -81114,9 +81114,9 @@
       <c r="A677">
         <v>676</v>
       </c>
-      <c r="B677" s="212"/>
+      <c r="B677" s="198"/>
       <c r="C677" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D677" s="100">
         <v>1</v>
@@ -81231,9 +81231,9 @@
       <c r="A678">
         <v>677</v>
       </c>
-      <c r="B678" s="212"/>
+      <c r="B678" s="198"/>
       <c r="C678" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D678" s="100">
         <v>1</v>
@@ -81348,9 +81348,9 @@
       <c r="A679">
         <v>678</v>
       </c>
-      <c r="B679" s="212"/>
+      <c r="B679" s="198"/>
       <c r="C679" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D679" s="100">
         <v>1</v>
@@ -81465,9 +81465,9 @@
       <c r="A680">
         <v>679</v>
       </c>
-      <c r="B680" s="212"/>
+      <c r="B680" s="198"/>
       <c r="C680" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D680" s="102">
         <v>1</v>
@@ -81582,9 +81582,9 @@
       <c r="A681">
         <v>680</v>
       </c>
-      <c r="B681" s="212"/>
+      <c r="B681" s="198"/>
       <c r="C681" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D681" s="100">
         <v>1</v>
@@ -81699,9 +81699,9 @@
       <c r="A682">
         <v>681</v>
       </c>
-      <c r="B682" s="212"/>
+      <c r="B682" s="198"/>
       <c r="C682" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D682" s="100">
         <v>1</v>
@@ -81816,9 +81816,9 @@
       <c r="A683">
         <v>682</v>
       </c>
-      <c r="B683" s="212"/>
+      <c r="B683" s="198"/>
       <c r="C683" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D683" s="100">
         <v>1</v>
@@ -81933,9 +81933,9 @@
       <c r="A684">
         <v>683</v>
       </c>
-      <c r="B684" s="212"/>
+      <c r="B684" s="198"/>
       <c r="C684" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D684" s="100">
         <v>1</v>
@@ -82050,11 +82050,11 @@
       <c r="A685">
         <v>684</v>
       </c>
-      <c r="B685" s="211">
+      <c r="B685" s="197">
         <v>29</v>
       </c>
       <c r="C685" s="126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D685" s="105">
         <v>1</v>
@@ -82169,9 +82169,9 @@
       <c r="A686">
         <v>685</v>
       </c>
-      <c r="B686" s="212"/>
+      <c r="B686" s="198"/>
       <c r="C686" s="127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D686" s="100">
         <v>1</v>
@@ -82286,9 +82286,9 @@
       <c r="A687">
         <v>686</v>
       </c>
-      <c r="B687" s="212"/>
+      <c r="B687" s="198"/>
       <c r="C687" s="127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D687" s="100">
         <v>1</v>
@@ -82403,9 +82403,9 @@
       <c r="A688">
         <v>687</v>
       </c>
-      <c r="B688" s="212"/>
+      <c r="B688" s="198"/>
       <c r="C688" s="127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D688" s="100">
         <v>1</v>
@@ -82520,9 +82520,9 @@
       <c r="A689">
         <v>688</v>
       </c>
-      <c r="B689" s="212"/>
+      <c r="B689" s="198"/>
       <c r="C689" s="127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D689" s="100">
         <v>1</v>
@@ -82637,9 +82637,9 @@
       <c r="A690">
         <v>689</v>
       </c>
-      <c r="B690" s="212"/>
+      <c r="B690" s="198"/>
       <c r="C690" s="127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D690" s="100">
         <v>1</v>
@@ -82754,9 +82754,9 @@
       <c r="A691">
         <v>690</v>
       </c>
-      <c r="B691" s="212"/>
+      <c r="B691" s="198"/>
       <c r="C691" s="127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D691" s="100">
         <v>1</v>
@@ -82871,9 +82871,9 @@
       <c r="A692">
         <v>691</v>
       </c>
-      <c r="B692" s="212"/>
+      <c r="B692" s="198"/>
       <c r="C692" s="127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D692" s="100">
         <v>1</v>
@@ -82988,11 +82988,11 @@
       <c r="A693">
         <v>692</v>
       </c>
-      <c r="B693" s="201">
+      <c r="B693" s="185">
         <v>30</v>
       </c>
       <c r="C693" s="128" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D693" s="108">
         <v>1</v>
@@ -83107,9 +83107,9 @@
       <c r="A694">
         <v>693</v>
       </c>
-      <c r="B694" s="202"/>
+      <c r="B694" s="186"/>
       <c r="C694" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D694" s="111">
         <v>1</v>
@@ -83224,9 +83224,9 @@
       <c r="A695">
         <v>694</v>
       </c>
-      <c r="B695" s="202"/>
+      <c r="B695" s="186"/>
       <c r="C695" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D695" s="111">
         <v>1</v>
@@ -83341,9 +83341,9 @@
       <c r="A696">
         <v>695</v>
       </c>
-      <c r="B696" s="202"/>
+      <c r="B696" s="186"/>
       <c r="C696" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D696" s="108">
         <v>2</v>
@@ -83458,9 +83458,9 @@
       <c r="A697">
         <v>696</v>
       </c>
-      <c r="B697" s="202"/>
+      <c r="B697" s="186"/>
       <c r="C697" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D697" s="111">
         <v>2</v>
@@ -83575,9 +83575,9 @@
       <c r="A698">
         <v>697</v>
       </c>
-      <c r="B698" s="202"/>
+      <c r="B698" s="186"/>
       <c r="C698" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D698" s="114">
         <v>2</v>
@@ -83692,9 +83692,9 @@
       <c r="A699">
         <v>698</v>
       </c>
-      <c r="B699" s="202"/>
+      <c r="B699" s="186"/>
       <c r="C699" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D699" s="111">
         <v>3</v>
@@ -83809,9 +83809,9 @@
       <c r="A700">
         <v>699</v>
       </c>
-      <c r="B700" s="202"/>
+      <c r="B700" s="186"/>
       <c r="C700" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D700" s="111">
         <v>3</v>
@@ -83926,9 +83926,9 @@
       <c r="A701">
         <v>700</v>
       </c>
-      <c r="B701" s="202"/>
+      <c r="B701" s="186"/>
       <c r="C701" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D701" s="111">
         <v>3</v>
@@ -84043,9 +84043,9 @@
       <c r="A702">
         <v>701</v>
       </c>
-      <c r="B702" s="202"/>
+      <c r="B702" s="186"/>
       <c r="C702" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D702" s="111">
         <v>3</v>
@@ -84160,9 +84160,9 @@
       <c r="A703">
         <v>702</v>
       </c>
-      <c r="B703" s="202"/>
+      <c r="B703" s="186"/>
       <c r="C703" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D703" s="111">
         <v>3</v>
@@ -84277,9 +84277,9 @@
       <c r="A704">
         <v>703</v>
       </c>
-      <c r="B704" s="202"/>
+      <c r="B704" s="186"/>
       <c r="C704" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D704" s="108">
         <v>4</v>
@@ -84394,9 +84394,9 @@
       <c r="A705">
         <v>704</v>
       </c>
-      <c r="B705" s="202"/>
+      <c r="B705" s="186"/>
       <c r="C705" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D705" s="111">
         <v>4</v>
@@ -84511,9 +84511,9 @@
       <c r="A706">
         <v>705</v>
       </c>
-      <c r="B706" s="202"/>
+      <c r="B706" s="186"/>
       <c r="C706" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D706" s="111">
         <v>4</v>
@@ -84628,9 +84628,9 @@
       <c r="A707">
         <v>706</v>
       </c>
-      <c r="B707" s="202"/>
+      <c r="B707" s="186"/>
       <c r="C707" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D707" s="111">
         <v>4</v>
@@ -84745,9 +84745,9 @@
       <c r="A708">
         <v>707</v>
       </c>
-      <c r="B708" s="202"/>
+      <c r="B708" s="186"/>
       <c r="C708" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D708" s="114">
         <v>4</v>
@@ -84862,9 +84862,9 @@
       <c r="A709">
         <v>708</v>
       </c>
-      <c r="B709" s="202"/>
+      <c r="B709" s="186"/>
       <c r="C709" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D709" s="111">
         <v>5</v>
@@ -84979,9 +84979,9 @@
       <c r="A710">
         <v>709</v>
       </c>
-      <c r="B710" s="202"/>
+      <c r="B710" s="186"/>
       <c r="C710" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D710" s="111">
         <v>5</v>
@@ -85096,9 +85096,9 @@
       <c r="A711">
         <v>710</v>
       </c>
-      <c r="B711" s="202"/>
+      <c r="B711" s="186"/>
       <c r="C711" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D711" s="111">
         <v>5</v>
@@ -85213,9 +85213,9 @@
       <c r="A712">
         <v>711</v>
       </c>
-      <c r="B712" s="202"/>
+      <c r="B712" s="186"/>
       <c r="C712" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D712" s="111">
         <v>5</v>
@@ -85330,9 +85330,9 @@
       <c r="A713">
         <v>712</v>
       </c>
-      <c r="B713" s="202"/>
+      <c r="B713" s="186"/>
       <c r="C713" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D713" s="111">
         <v>5</v>
@@ -85447,9 +85447,9 @@
       <c r="A714">
         <v>713</v>
       </c>
-      <c r="B714" s="202"/>
+      <c r="B714" s="186"/>
       <c r="C714" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D714" s="111">
         <v>5</v>
@@ -85564,9 +85564,9 @@
       <c r="A715">
         <v>714</v>
       </c>
-      <c r="B715" s="202"/>
+      <c r="B715" s="186"/>
       <c r="C715" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D715" s="108">
         <v>6</v>
@@ -85681,9 +85681,9 @@
       <c r="A716">
         <v>715</v>
       </c>
-      <c r="B716" s="202"/>
+      <c r="B716" s="186"/>
       <c r="C716" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D716" s="111">
         <v>6</v>
@@ -85798,9 +85798,9 @@
       <c r="A717">
         <v>716</v>
       </c>
-      <c r="B717" s="202"/>
+      <c r="B717" s="186"/>
       <c r="C717" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D717" s="111">
         <v>6</v>
@@ -85915,9 +85915,9 @@
       <c r="A718">
         <v>717</v>
       </c>
-      <c r="B718" s="202"/>
+      <c r="B718" s="186"/>
       <c r="C718" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D718" s="111">
         <v>6</v>
@@ -86032,9 +86032,9 @@
       <c r="A719">
         <v>718</v>
       </c>
-      <c r="B719" s="202"/>
+      <c r="B719" s="186"/>
       <c r="C719" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D719" s="114">
         <v>6</v>
@@ -86149,9 +86149,9 @@
       <c r="A720">
         <v>719</v>
       </c>
-      <c r="B720" s="202"/>
+      <c r="B720" s="186"/>
       <c r="C720" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D720" s="111">
         <v>7</v>
@@ -86266,9 +86266,9 @@
       <c r="A721">
         <v>720</v>
       </c>
-      <c r="B721" s="202"/>
+      <c r="B721" s="186"/>
       <c r="C721" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D721" s="111">
         <v>7</v>
@@ -86383,9 +86383,9 @@
       <c r="A722">
         <v>721</v>
       </c>
-      <c r="B722" s="202"/>
+      <c r="B722" s="186"/>
       <c r="C722" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D722" s="111">
         <v>7</v>
@@ -86500,9 +86500,9 @@
       <c r="A723">
         <v>722</v>
       </c>
-      <c r="B723" s="202"/>
+      <c r="B723" s="186"/>
       <c r="C723" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D723" s="111">
         <v>7</v>
@@ -86617,9 +86617,9 @@
       <c r="A724">
         <v>723</v>
       </c>
-      <c r="B724" s="202"/>
+      <c r="B724" s="186"/>
       <c r="C724" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D724" s="111">
         <v>7</v>
@@ -86734,9 +86734,9 @@
       <c r="A725">
         <v>724</v>
       </c>
-      <c r="B725" s="202"/>
+      <c r="B725" s="186"/>
       <c r="C725" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D725" s="111">
         <v>7</v>
@@ -86851,9 +86851,9 @@
       <c r="A726">
         <v>725</v>
       </c>
-      <c r="B726" s="202"/>
+      <c r="B726" s="186"/>
       <c r="C726" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D726" s="108">
         <v>8</v>
@@ -86968,9 +86968,9 @@
       <c r="A727">
         <v>726</v>
       </c>
-      <c r="B727" s="202"/>
+      <c r="B727" s="186"/>
       <c r="C727" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D727" s="111">
         <v>8</v>
@@ -87085,9 +87085,9 @@
       <c r="A728">
         <v>727</v>
       </c>
-      <c r="B728" s="202"/>
+      <c r="B728" s="186"/>
       <c r="C728" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D728" s="111">
         <v>8</v>
@@ -87202,9 +87202,9 @@
       <c r="A729">
         <v>728</v>
       </c>
-      <c r="B729" s="202"/>
+      <c r="B729" s="186"/>
       <c r="C729" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D729" s="111">
         <v>8</v>
@@ -87319,9 +87319,9 @@
       <c r="A730">
         <v>729</v>
       </c>
-      <c r="B730" s="202"/>
+      <c r="B730" s="186"/>
       <c r="C730" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D730" s="114">
         <v>8</v>
@@ -87436,9 +87436,9 @@
       <c r="A731">
         <v>730</v>
       </c>
-      <c r="B731" s="202"/>
+      <c r="B731" s="186"/>
       <c r="C731" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D731" s="111">
         <v>9</v>
@@ -87553,9 +87553,9 @@
       <c r="A732">
         <v>731</v>
       </c>
-      <c r="B732" s="202"/>
+      <c r="B732" s="186"/>
       <c r="C732" s="129" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D732" s="111">
         <v>9</v>
@@ -87670,9 +87670,9 @@
       <c r="A733">
         <v>732</v>
       </c>
-      <c r="B733" s="203"/>
+      <c r="B733" s="187"/>
       <c r="C733" s="130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D733" s="114">
         <v>9</v>
@@ -87785,13 +87785,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B693:B733"/>
-    <mergeCell ref="B530:B548"/>
-    <mergeCell ref="B549:B563"/>
-    <mergeCell ref="B565:B619"/>
-    <mergeCell ref="B620:B673"/>
-    <mergeCell ref="B674:B684"/>
-    <mergeCell ref="B685:B692"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="B60:B79"/>
+    <mergeCell ref="B80:B171"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B30:B42"/>
+    <mergeCell ref="B43:B47"/>
     <mergeCell ref="B172:B177"/>
     <mergeCell ref="B517:B529"/>
     <mergeCell ref="B233:B298"/>
@@ -87806,14 +87807,13 @@
     <mergeCell ref="B471:B495"/>
     <mergeCell ref="B496:B516"/>
     <mergeCell ref="B178:B232"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="B60:B79"/>
-    <mergeCell ref="B80:B171"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B30:B42"/>
-    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B693:B733"/>
+    <mergeCell ref="B530:B548"/>
+    <mergeCell ref="B549:B563"/>
+    <mergeCell ref="B565:B619"/>
+    <mergeCell ref="B620:B673"/>
+    <mergeCell ref="B674:B684"/>
+    <mergeCell ref="B685:B692"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
